--- a/data/trans_orig/P36B02-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B02-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3210</v>
+        <v>3111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15198</v>
+        <v>15826</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01628120315352963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006774608578380383</v>
+        <v>0.006566978127784636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03207817870318475</v>
+        <v>0.03340306297149809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6748</v>
+        <v>7335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007038842706445819</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02200266521102841</v>
+        <v>0.02391626144644923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4272</v>
+        <v>4124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17935</v>
+        <v>17500</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01264941908243725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005473709432975692</v>
+        <v>0.005284096968117514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02297965344368883</v>
+        <v>0.02242293381149152</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9219</v>
+        <v>9454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008181470630315851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002118370167773564</v>
+        <v>0.002129169283007348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01945945118695373</v>
+        <v>0.0199548154478236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5246</v>
+        <v>4756</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003064214413908786</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01710568156865448</v>
+        <v>0.01550719529137035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -857,19 +857,19 @@
         <v>4816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1829</v>
+        <v>1866</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11571</v>
+        <v>11391</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006170645612091251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002343951487274855</v>
+        <v>0.00239119177876111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01482542099407328</v>
+        <v>0.01459575106180842</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>15682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9066</v>
+        <v>8909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26201</v>
+        <v>26116</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03309943332303922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01913540447627052</v>
+        <v>0.01880476282420711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05530195477364205</v>
+        <v>0.05512207486967743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -907,19 +907,19 @@
         <v>5843</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12582</v>
+        <v>11943</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01905225479710254</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006494819546122684</v>
+        <v>0.006517025491507353</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04102717024872658</v>
+        <v>0.03894276139784286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -928,19 +928,19 @@
         <v>21525</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13930</v>
+        <v>14042</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33466</v>
+        <v>33272</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02757959675029609</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0178490443547993</v>
+        <v>0.0179926192083597</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04287946963855709</v>
+        <v>0.04263104388677997</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>32189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22688</v>
+        <v>22596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46443</v>
+        <v>44922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06794155058116044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04788725087751694</v>
+        <v>0.04769399896781955</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09802791036933094</v>
+        <v>0.09481629982981221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -978,19 +978,19 @@
         <v>12372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6842</v>
+        <v>6791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21349</v>
+        <v>20574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04034319662220483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02230876352518341</v>
+        <v>0.02214335747324953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06961432174198652</v>
+        <v>0.06708553241867304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -999,19 +999,19 @@
         <v>44562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31888</v>
+        <v>32724</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57807</v>
+        <v>57827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05709678177232982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04085849153267909</v>
+        <v>0.04192919164616198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0740681957845704</v>
+        <v>0.07409374949074579</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>414315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396992</v>
+        <v>397935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>428341</v>
+        <v>428266</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8744963423119548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8379310384596794</v>
+        <v>0.8399217345610867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.904101230480108</v>
+        <v>0.9039411441392698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>277</v>
@@ -1049,19 +1049,19 @@
         <v>285366</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>274678</v>
+        <v>275865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>292252</v>
+        <v>293189</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.930501491460338</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8956491473171159</v>
+        <v>0.8995195609255997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9529557496571153</v>
+        <v>0.9560106884301548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -1070,19 +1070,19 @@
         <v>699682</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>681156</v>
+        <v>680503</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>716442</v>
+        <v>713668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8965035567828455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8727653794343562</v>
+        <v>0.871929239289474</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9179779588575918</v>
+        <v>0.914423448420832</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>11544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6003</v>
+        <v>5658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21475</v>
+        <v>20992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03146186538123239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01636064419335522</v>
+        <v>0.01541856565791268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05852657048716087</v>
+        <v>0.05721021958805594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1195,19 +1195,19 @@
         <v>8559</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3491</v>
+        <v>4232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15910</v>
+        <v>15951</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02301628999489499</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009388739357131987</v>
+        <v>0.0113796825917695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.042785128248611</v>
+        <v>0.042893749905878</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1216,19 +1216,19 @@
         <v>20103</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12015</v>
+        <v>11513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31920</v>
+        <v>31790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02721089491100988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01626285216374904</v>
+        <v>0.01558280591661207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04320514612957058</v>
+        <v>0.04302934716482114</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>2576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7306</v>
+        <v>6761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007021340150305577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002231372536166962</v>
+        <v>0.002179502518620661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01990968521590759</v>
+        <v>0.01842451420213495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1266,19 +1266,19 @@
         <v>3586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9402</v>
+        <v>9943</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009643479908899267</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002592705093655444</v>
+        <v>0.002590920655106651</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02528387700146158</v>
+        <v>0.0267372916328221</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1287,19 +1287,19 @@
         <v>6162</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2546</v>
+        <v>1972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13479</v>
+        <v>13462</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008341160076442323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00344643692569671</v>
+        <v>0.002668881025712096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01824389209230194</v>
+        <v>0.01822162732340489</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>12492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6364</v>
+        <v>6967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20808</v>
+        <v>22160</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03404521318523848</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01734423751188613</v>
+        <v>0.01898625201904247</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05670854254074328</v>
+        <v>0.06039201289833926</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1337,19 +1337,19 @@
         <v>12057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6533</v>
+        <v>6348</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21083</v>
+        <v>21140</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03242346045381018</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01756842067395557</v>
+        <v>0.0170719857544794</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05669460187610136</v>
+        <v>0.05684728913205612</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1358,19 +1358,19 @@
         <v>24549</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15754</v>
+        <v>15764</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34828</v>
+        <v>36305</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03322892505140013</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02132336950581935</v>
+        <v>0.02133765195722211</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04714197621099259</v>
+        <v>0.0491401980473165</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>33589</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23778</v>
+        <v>22646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46028</v>
+        <v>44837</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09153994617756397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06480232838221932</v>
+        <v>0.06171650630582458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1254391066307522</v>
+        <v>0.1221944962701569</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1408,19 +1408,19 @@
         <v>27120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18454</v>
+        <v>18754</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37919</v>
+        <v>37857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07292904509901119</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04962628001226029</v>
+        <v>0.05043221633566786</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1019705082590733</v>
+        <v>0.1018018821546901</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1429,19 +1429,19 @@
         <v>60709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47331</v>
+        <v>48162</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75545</v>
+        <v>78495</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08217239129940312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06406484621871129</v>
+        <v>0.0651890091425345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1022536694868604</v>
+        <v>0.1062465929503423</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>306732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>289765</v>
+        <v>291971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>318861</v>
+        <v>319736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8359316351056596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7896913825770737</v>
+        <v>0.7957032347484537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.868988584907561</v>
+        <v>0.8713726760324019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -1479,19 +1479,19 @@
         <v>320543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>304646</v>
+        <v>305588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332248</v>
+        <v>332869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8619877245433843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8192385369786732</v>
+        <v>0.821771097633428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8934651784876627</v>
+        <v>0.8951326709394837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>603</v>
@@ -1500,19 +1500,19 @@
         <v>627275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>607709</v>
+        <v>604268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>645462</v>
+        <v>643924</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8490466286617445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8225630614130482</v>
+        <v>0.8179063380112689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8736642436201887</v>
+        <v>0.8715815224748037</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>9966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4957</v>
+        <v>4649</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18043</v>
+        <v>18952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01840497552422552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009153785119468487</v>
+        <v>0.008585644163178079</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03332084889544393</v>
+        <v>0.03499868736948931</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1625,19 +1625,19 @@
         <v>8007</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3217</v>
+        <v>3784</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14566</v>
+        <v>14773</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04772175359426724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01917597437467433</v>
+        <v>0.02255450402889396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08681795977178221</v>
+        <v>0.08804818892045294</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1646,19 +1646,19 @@
         <v>17973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11284</v>
+        <v>10726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28391</v>
+        <v>27877</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0253398419220095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0159090708980732</v>
+        <v>0.01512230166843032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04002690079943021</v>
+        <v>0.03930268487415858</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>9124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4698</v>
+        <v>4996</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15814</v>
+        <v>17001</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01684846752176515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00867556441748722</v>
+        <v>0.009225909566476273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0292030718298168</v>
+        <v>0.03139593321753444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7602</v>
+        <v>6197</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01200513364264215</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04531134873163461</v>
+        <v>0.03693397993481905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1717,19 +1717,19 @@
         <v>11138</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6326</v>
+        <v>6346</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19019</v>
+        <v>18546</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01570277977629282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008918456629422252</v>
+        <v>0.008947605212259131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02681393709783457</v>
+        <v>0.02614764183534387</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>24909</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15926</v>
+        <v>15683</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36987</v>
+        <v>36180</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04599924305999556</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02941052535741369</v>
+        <v>0.02896249535445111</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06830449884854498</v>
+        <v>0.06681407414685261</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1767,19 +1767,19 @@
         <v>4650</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1721</v>
+        <v>1664</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10250</v>
+        <v>10217</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02771392750151971</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01025579815257265</v>
+        <v>0.009916075682134861</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06109337433930405</v>
+        <v>0.06089461348147265</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -1788,19 +1788,19 @@
         <v>29559</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18943</v>
+        <v>20278</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41062</v>
+        <v>42082</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04167386255138736</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.026707645221938</v>
+        <v>0.02858890775703323</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05789231756174271</v>
+        <v>0.05933026468211184</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>36803</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25590</v>
+        <v>27014</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50099</v>
+        <v>51198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06796435917078779</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04725688743634983</v>
+        <v>0.04988613541145488</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09251774610543906</v>
+        <v>0.09454728953181119</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1838,19 +1838,19 @@
         <v>6960</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3041</v>
+        <v>2997</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13949</v>
+        <v>13411</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04148398903058373</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01812427792522952</v>
+        <v>0.01786326829079948</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0831369645095113</v>
+        <v>0.07993313218878774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1859,19 +1859,19 @@
         <v>43763</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32974</v>
+        <v>33032</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58325</v>
+        <v>56911</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06170044338006044</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04648836770833453</v>
+        <v>0.04657083926351353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08223031921276813</v>
+        <v>0.08023690243038768</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>460705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>441934</v>
+        <v>443065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>475631</v>
+        <v>476095</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.850782954723226</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8161191396011402</v>
+        <v>0.8182069492094008</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.878347797475649</v>
+        <v>0.8792038990902233</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>142</v>
@@ -1909,19 +1909,19 @@
         <v>146151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136529</v>
+        <v>135878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153708</v>
+        <v>153528</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8710751962309872</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8137312860256017</v>
+        <v>0.8098510167556798</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.916115496940215</v>
+        <v>0.9150448892714962</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>590</v>
@@ -1930,19 +1930,19 @@
         <v>606856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>586912</v>
+        <v>585346</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>625070</v>
+        <v>623899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8555830723702499</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8274651294296171</v>
+        <v>0.8252568093672661</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8812627684958503</v>
+        <v>0.8796111733670882</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>38501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27703</v>
+        <v>27791</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51717</v>
+        <v>53652</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03109136681185728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02237093898501358</v>
+        <v>0.02244192797085235</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04176366544974808</v>
+        <v>0.0433257339460097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2055,19 +2055,19 @@
         <v>12437</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6988</v>
+        <v>6377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22144</v>
+        <v>20074</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01741219110964997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009783033839969184</v>
+        <v>0.008928395001268954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03100193326215398</v>
+        <v>0.02810426870375557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2076,19 +2076,19 @@
         <v>50939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39010</v>
+        <v>38576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66628</v>
+        <v>65981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0260874050163776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01997833550273437</v>
+        <v>0.01975600124736916</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03412245308064616</v>
+        <v>0.03379080222409299</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>18503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11576</v>
+        <v>11224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29384</v>
+        <v>28325</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01494208801113146</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009348020394938785</v>
+        <v>0.009063850970845678</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02372860307294159</v>
+        <v>0.02287370860864993</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2126,19 +2126,19 @@
         <v>4711</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11991</v>
+        <v>12024</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006594979358482456</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001799549240935264</v>
+        <v>0.001815526743470999</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01678784706229149</v>
+        <v>0.0168340711696316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2147,19 +2147,19 @@
         <v>23214</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15398</v>
+        <v>14681</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35375</v>
+        <v>34542</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01188864285406446</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00788572251090253</v>
+        <v>0.007518516627843475</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01811666788681144</v>
+        <v>0.01769030321097743</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>42198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30677</v>
+        <v>30674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55967</v>
+        <v>55982</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03407671336109244</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02477314944752028</v>
+        <v>0.02477027748119428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0451955447907228</v>
+        <v>0.04520783232384817</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2197,19 +2197,19 @@
         <v>22981</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14859</v>
+        <v>14061</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35127</v>
+        <v>34561</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03217314090146218</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02080262407021537</v>
+        <v>0.01968606686065661</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04917735375413713</v>
+        <v>0.04838481554071759</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>63</v>
@@ -2218,19 +2218,19 @@
         <v>65179</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50663</v>
+        <v>50750</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82192</v>
+        <v>83134</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0333803699504745</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02594621895326716</v>
+        <v>0.02599052950597333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04209338926947311</v>
+        <v>0.04257544728628076</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>64886</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50231</v>
+        <v>50099</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81722</v>
+        <v>81287</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05239789786150594</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04056312451335255</v>
+        <v>0.04045685566030589</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0659934770814541</v>
+        <v>0.06564247871403958</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2268,19 +2268,19 @@
         <v>40944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30349</v>
+        <v>30583</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54759</v>
+        <v>55495</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05732126946741193</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04248844822436467</v>
+        <v>0.04281650994476332</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07666216407437924</v>
+        <v>0.07769264315213457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>108</v>
@@ -2289,19 +2289,19 @@
         <v>105830</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>88308</v>
+        <v>87534</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127910</v>
+        <v>126600</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05419891014157539</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04522519302435545</v>
+        <v>0.044829231426515</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06550694556384494</v>
+        <v>0.06483594398448639</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>1074245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1048453</v>
+        <v>1049452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1097251</v>
+        <v>1096236</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8674919339544128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8466644726148747</v>
+        <v>0.8474710570687551</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8860706493592093</v>
+        <v>0.8852503027532366</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>615</v>
@@ -2339,19 +2339,19 @@
         <v>633213</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>614782</v>
+        <v>613383</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>647928</v>
+        <v>648476</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8864984191629934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8606951510272011</v>
+        <v>0.8587372799566011</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9071006980070756</v>
+        <v>0.9078675103458917</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1676</v>
@@ -2360,19 +2360,19 @@
         <v>1707458</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1677528</v>
+        <v>1678231</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1736254</v>
+        <v>1735739</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8744446720375081</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8591163769274329</v>
+        <v>0.8594763055820336</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8891918054910608</v>
+        <v>0.8889280767875147</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>11789</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6562</v>
+        <v>6394</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19761</v>
+        <v>19632</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03362870015489829</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01871802396616597</v>
+        <v>0.01823887780544997</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05637003892948358</v>
+        <v>0.05600145143824499</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2485,19 +2485,19 @@
         <v>14576</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8163</v>
+        <v>8143</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25098</v>
+        <v>25025</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02567918122073239</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01438071365270557</v>
+        <v>0.01434529059993365</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04421609654630083</v>
+        <v>0.04408782418262602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2506,19 +2506,19 @@
         <v>26365</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18228</v>
+        <v>16988</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40579</v>
+        <v>37940</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02871427496107342</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01985197737363021</v>
+        <v>0.01850172064936848</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04419554973358587</v>
+        <v>0.04132071963909461</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>5271</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1563</v>
+        <v>1628</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13198</v>
+        <v>13125</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01503552005972119</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004458971958354717</v>
+        <v>0.004645310053151322</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03764874964856146</v>
+        <v>0.03744169626982109</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2556,19 +2556,19 @@
         <v>5835</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13323</v>
+        <v>13606</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01027944816389752</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003472371679909848</v>
+        <v>0.003466656889859991</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02347130188191468</v>
+        <v>0.023969709582529</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2577,19 +2577,19 @@
         <v>11106</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4999</v>
+        <v>5890</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21032</v>
+        <v>21136</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01209529691640331</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005444856892209816</v>
+        <v>0.006414383484841628</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0229058440394944</v>
+        <v>0.02301982811905346</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>9001</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4153</v>
+        <v>4159</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15864</v>
+        <v>16284</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02567686821512307</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01184651981644472</v>
+        <v>0.01186301166038328</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04525450406756088</v>
+        <v>0.04645185946890647</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2627,19 +2627,19 @@
         <v>10792</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5636</v>
+        <v>5355</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19391</v>
+        <v>20367</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01901331887865807</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009929264933375051</v>
+        <v>0.009433932818101832</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03416133300848723</v>
+        <v>0.03588073430386475</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -2648,19 +2648,19 @@
         <v>19793</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12476</v>
+        <v>11637</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>29958</v>
+        <v>29346</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02155743469837598</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01358775358413644</v>
+        <v>0.0126739667647018</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03262799044953625</v>
+        <v>0.03196125210204308</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>7890</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3550</v>
+        <v>3572</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16010</v>
+        <v>15244</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02250779638474936</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0101280994948807</v>
+        <v>0.01019053277619865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04567032128702823</v>
+        <v>0.04348454300078225</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -2698,19 +2698,19 @@
         <v>22027</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13718</v>
+        <v>13537</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>33421</v>
+        <v>32775</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03880533275771184</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02416787969393569</v>
+        <v>0.02384835607313415</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05887846687745023</v>
+        <v>0.0577414718705216</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -2719,19 +2719,19 @@
         <v>29917</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20037</v>
+        <v>20412</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42682</v>
+        <v>42998</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0325830001815899</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0218231697071016</v>
+        <v>0.02223069134326126</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04648553835670732</v>
+        <v>0.04682978252898849</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>316604</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>303905</v>
+        <v>305122</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>326241</v>
+        <v>327068</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9031511151855081</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8669267152902401</v>
+        <v>0.8703976057406558</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.930640162347219</v>
+        <v>0.9330015083860874</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>488</v>
@@ -2769,19 +2769,19 @@
         <v>514389</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>497583</v>
+        <v>496036</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>526857</v>
+        <v>526699</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9062227189790002</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.876613810964045</v>
+        <v>0.8738885554040898</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9281870364336915</v>
+        <v>0.927909585771437</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>795</v>
@@ -2790,19 +2790,19 @@
         <v>830993</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>810405</v>
+        <v>810361</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>848782</v>
+        <v>847655</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9050499932425574</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8826266546259409</v>
+        <v>0.8825793016376553</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9244241866438663</v>
+        <v>0.9231967025087041</v>
       </c>
     </row>
     <row r="33">
@@ -2894,19 +2894,19 @@
         <v>2802</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7361</v>
+        <v>7608</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009396368096508944</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002811761830516453</v>
+        <v>0.002855604532727932</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02468473051616921</v>
+        <v>0.02551408353660279</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>34</v>
@@ -2915,19 +2915,19 @@
         <v>34629</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>24474</v>
+        <v>24815</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>47367</v>
+        <v>46770</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02773062679730311</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01959852956015506</v>
+        <v>0.01987152131435051</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03793144138527363</v>
+        <v>0.03745312989202152</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>37</v>
@@ -2936,19 +2936,19 @@
         <v>37431</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26276</v>
+        <v>25964</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>50791</v>
+        <v>50398</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02419641474554569</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01698568018585347</v>
+        <v>0.0167838538342297</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03283271665555306</v>
+        <v>0.03257881878465043</v>
       </c>
     </row>
     <row r="35">
@@ -2978,19 +2978,19 @@
         <v>11443</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6462</v>
+        <v>6534</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19982</v>
+        <v>19160</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009163774745126878</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005174870895944133</v>
+        <v>0.005232099164433889</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01600123362989128</v>
+        <v>0.01534301380525434</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -2999,19 +2999,19 @@
         <v>11443</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6346</v>
+        <v>6364</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>19513</v>
+        <v>18973</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007397315371320024</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004102458393493966</v>
+        <v>0.004113991967571891</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01261388981696472</v>
+        <v>0.01226485738145598</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>7170</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3311</v>
+        <v>3058</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13990</v>
+        <v>14266</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0240451497653331</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0111035911884068</v>
+        <v>0.01025378315454614</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04691618940339563</v>
+        <v>0.04783995576931305</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -3049,19 +3049,19 @@
         <v>26910</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18277</v>
+        <v>17948</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>38535</v>
+        <v>37968</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02154950549578777</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01463621635450106</v>
+        <v>0.01437247612627623</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03085831401073988</v>
+        <v>0.03040422237660215</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>35</v>
@@ -3070,19 +3070,19 @@
         <v>34080</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>24329</v>
+        <v>23894</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>46429</v>
+        <v>46372</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02203057954400901</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01572681816719327</v>
+        <v>0.01544593039885355</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0300128109492476</v>
+        <v>0.02997610799747319</v>
       </c>
     </row>
     <row r="37">
@@ -3099,19 +3099,19 @@
         <v>11388</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6216</v>
+        <v>6054</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19232</v>
+        <v>19492</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03818938836652083</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02084508521783327</v>
+        <v>0.02030223292814582</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06449405074097343</v>
+        <v>0.06536659813517444</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -3120,19 +3120,19 @@
         <v>56104</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>42991</v>
+        <v>41668</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>72656</v>
+        <v>71855</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04492783958689896</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03442696685623555</v>
+        <v>0.03336787603262311</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05818229358848735</v>
+        <v>0.05754124795666503</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>67</v>
@@ -3141,19 +3141,19 @@
         <v>67492</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>53135</v>
+        <v>53000</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>84277</v>
+        <v>83811</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04362889884967633</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03434799072004555</v>
+        <v>0.03426097466292238</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05447903778469407</v>
+        <v>0.05417763954465133</v>
       </c>
     </row>
     <row r="38">
@@ -3170,19 +3170,19 @@
         <v>276841</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>267605</v>
+        <v>266419</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>284241</v>
+        <v>284238</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9283690937716371</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8973979390515074</v>
+        <v>0.8934211371897531</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.953185417333742</v>
+        <v>0.9531774400007657</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1109</v>
@@ -3191,19 +3191,19 @@
         <v>1119673</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1097738</v>
+        <v>1099114</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1139225</v>
+        <v>1140775</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8966282533748833</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.879062287188103</v>
+        <v>0.8801643371237361</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9122853468763434</v>
+        <v>0.9135263066222531</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1393</v>
@@ -3212,19 +3212,19 @@
         <v>1396513</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1372923</v>
+        <v>1373595</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1416790</v>
+        <v>1419678</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9027467914894489</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8874976071049899</v>
+        <v>0.8879315373134637</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9158545007504885</v>
+        <v>0.917721433226188</v>
       </c>
     </row>
     <row r="39">
@@ -3316,19 +3316,19 @@
         <v>82317</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>65672</v>
+        <v>64468</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>102774</v>
+        <v>101186</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02517864263576868</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0200874098301855</v>
+        <v>0.01971903130377541</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03143611181972192</v>
+        <v>0.03095020187981563</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>77</v>
@@ -3337,19 +3337,19 @@
         <v>80367</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>63394</v>
+        <v>65045</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>99170</v>
+        <v>99524</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02379829346525789</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01877245547839828</v>
+        <v>0.01926115251670196</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02936626878719488</v>
+        <v>0.02947116978061075</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>156</v>
@@ -3358,19 +3358,19 @@
         <v>162683</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>136099</v>
+        <v>137682</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>189291</v>
+        <v>189494</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02447728583951751</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02047736096277838</v>
+        <v>0.0207155663711736</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02848071286138994</v>
+        <v>0.02851122877734584</v>
       </c>
     </row>
     <row r="41">
@@ -3387,19 +3387,19 @@
         <v>39350</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28676</v>
+        <v>28638</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>53552</v>
+        <v>54616</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01203624973053151</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008771245739118028</v>
+        <v>0.008759560545805537</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01638021258416365</v>
+        <v>0.01670567041620722</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>28529</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>18551</v>
+        <v>19280</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>41378</v>
+        <v>41061</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00844802632900672</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00549345914530876</v>
+        <v>0.005709330411175571</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01225285977009153</v>
+        <v>0.0121590931511136</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>67</v>
@@ -3429,19 +3429,19 @@
         <v>67879</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>53837</v>
+        <v>53485</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>86550</v>
+        <v>86286</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01021306982584432</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.008100303991811469</v>
+        <v>0.008047283806058455</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01302228111312114</v>
+        <v>0.01298254765377977</v>
       </c>
     </row>
     <row r="42">
@@ -3458,19 +3458,19 @@
         <v>111453</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>91013</v>
+        <v>91604</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>132888</v>
+        <v>133403</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03409064304441228</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02783868693153572</v>
+        <v>0.02801928791882436</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04064701159805732</v>
+        <v>0.0408047616589554</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>83</v>
@@ -3479,19 +3479,19 @@
         <v>83233</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>66271</v>
+        <v>65389</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>105768</v>
+        <v>101885</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02464716864186236</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01962428901300841</v>
+        <v>0.01936309120001211</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03132014238121451</v>
+        <v>0.03017032625461909</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>192</v>
@@ -3500,19 +3500,19 @@
         <v>194686</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>167116</v>
+        <v>166044</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>223197</v>
+        <v>220726</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02929240424081923</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02514415368903673</v>
+        <v>0.02498289519181424</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03358218170408096</v>
+        <v>0.03321031017955713</v>
       </c>
     </row>
     <row r="43">
@@ -3529,19 +3529,19 @@
         <v>186746</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>162931</v>
+        <v>161992</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>212615</v>
+        <v>216437</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05712091796032116</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04983669145920359</v>
+        <v>0.04954919226812949</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0650335695586307</v>
+        <v>0.06620283136370764</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>163</v>
@@ -3550,19 +3550,19 @@
         <v>165527</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>142138</v>
+        <v>141911</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>190781</v>
+        <v>193087</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04901610035417642</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04209009361714768</v>
+        <v>0.0420229677702546</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05649450307825684</v>
+        <v>0.05717727386105627</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>354</v>
@@ -3571,19 +3571,19 @@
         <v>352273</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>314696</v>
+        <v>317352</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>390602</v>
+        <v>391138</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0530028520159324</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04734902067421889</v>
+        <v>0.04774873927876217</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05876981660518556</v>
+        <v>0.05885042615974445</v>
       </c>
     </row>
     <row r="44">
@@ -3600,19 +3600,19 @@
         <v>2849442</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2811961</v>
+        <v>2808539</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2888864</v>
+        <v>2885165</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8715735466289664</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8601089585168437</v>
+        <v>0.8590623390887553</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.883631648943736</v>
+        <v>0.8825003554738144</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2944</v>
@@ -3621,19 +3621,19 @@
         <v>3019336</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2982508</v>
+        <v>2984761</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3052741</v>
+        <v>3053170</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8940904112096966</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8831848907935793</v>
+        <v>0.8838519656003699</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.903982400197783</v>
+        <v>0.904109452321175</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5732</v>
@@ -3642,19 +3642,19 @@
         <v>5868779</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5810766</v>
+        <v>5814495</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5923003</v>
+        <v>5916488</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8830143880778866</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8742858243249578</v>
+        <v>0.8748469268826489</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8911730064904679</v>
+        <v>0.8901926968296783</v>
       </c>
     </row>
     <row r="45">
@@ -3988,19 +3988,19 @@
         <v>20387</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12704</v>
+        <v>12550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31894</v>
+        <v>32227</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04662913442891184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02905773504472617</v>
+        <v>0.02870496463617563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07294881333223703</v>
+        <v>0.07370935484847184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4009,19 +4009,19 @@
         <v>6462</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2402</v>
+        <v>2951</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13484</v>
+        <v>13855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02061001977799836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007660865481717259</v>
+        <v>0.009412090748995421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04300503388247623</v>
+        <v>0.04418748837002053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4030,19 +4030,19 @@
         <v>26849</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17557</v>
+        <v>17698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39858</v>
+        <v>39773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03576243230169714</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02338507970589054</v>
+        <v>0.02357342855337584</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05309015141329874</v>
+        <v>0.05297754480773382</v>
       </c>
     </row>
     <row r="5">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6106</v>
+        <v>6421</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00463727766734222</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01396508314756627</v>
+        <v>0.01468555001233011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -4080,19 +4080,19 @@
         <v>3073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8274</v>
+        <v>8970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00980041165261876</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003150698284682492</v>
+        <v>0.003185746062238395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02638879739091471</v>
+        <v>0.02860754735201643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -4101,19 +4101,19 @@
         <v>5100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12247</v>
+        <v>11165</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006793624638161586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002668003935074253</v>
+        <v>0.002632223422020973</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01631311907119723</v>
+        <v>0.01487161796053474</v>
       </c>
     </row>
     <row r="6">
@@ -4130,19 +4130,19 @@
         <v>10595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5682</v>
+        <v>5874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18568</v>
+        <v>18334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02423326630061822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01299669609908394</v>
+        <v>0.01343617245538502</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04246840498810397</v>
+        <v>0.04193331002632612</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4151,19 +4151,19 @@
         <v>6205</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2643</v>
+        <v>2189</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13310</v>
+        <v>13523</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01978845871955567</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00842807599982427</v>
+        <v>0.006981032301299798</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04245030990644777</v>
+        <v>0.04312733755166404</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -4172,19 +4172,19 @@
         <v>16800</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10079</v>
+        <v>9895</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25798</v>
+        <v>26205</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02237692335258879</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01342543531899613</v>
+        <v>0.01317964924248958</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03436284375373903</v>
+        <v>0.03490483161784402</v>
       </c>
     </row>
     <row r="7">
@@ -4201,19 +4201,19 @@
         <v>14535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8399</v>
+        <v>8695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23500</v>
+        <v>23771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03324460750340957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01921056145032576</v>
+        <v>0.01988809571237474</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05375085686805569</v>
+        <v>0.05437036543961245</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -4222,19 +4222,19 @@
         <v>9323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4299</v>
+        <v>4137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18004</v>
+        <v>19331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0297332209388401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01370915838657964</v>
+        <v>0.01319262192350299</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0574208313063698</v>
+        <v>0.06165316058730428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -4243,19 +4243,19 @@
         <v>23858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15394</v>
+        <v>15406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35040</v>
+        <v>35021</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03177810134581668</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02050517508647542</v>
+        <v>0.02051995803868864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04667218983510074</v>
+        <v>0.04664741153741876</v>
       </c>
     </row>
     <row r="8">
@@ -4272,19 +4272,19 @@
         <v>389667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>375564</v>
+        <v>375001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>401127</v>
+        <v>401727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8912557140997182</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8589993792744743</v>
+        <v>0.8577115522774008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9174679442491964</v>
+        <v>0.918840815097774</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>259</v>
@@ -4293,19 +4293,19 @@
         <v>288487</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>276701</v>
+        <v>274858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>296885</v>
+        <v>296911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9200678889109871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8824796232468546</v>
+        <v>0.8766014178040137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9468494700707837</v>
+        <v>0.9469348188077172</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>617</v>
@@ -4314,19 +4314,19 @@
         <v>678154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>659931</v>
+        <v>660555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>693003</v>
+        <v>694288</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9032889183617357</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8790156464066704</v>
+        <v>0.8798474416227886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9230677234726344</v>
+        <v>0.924778336548306</v>
       </c>
     </row>
     <row r="9">
@@ -4418,19 +4418,19 @@
         <v>8465</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3565</v>
+        <v>3842</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16956</v>
+        <v>18285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02021162800852922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008511858046929891</v>
+        <v>0.00917311215658397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04048732339276259</v>
+        <v>0.04366072340004817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4439,19 +4439,19 @@
         <v>6889</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2980</v>
+        <v>2960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14031</v>
+        <v>13147</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02038181705523607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008816788251970702</v>
+        <v>0.008758213281831115</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04151085181796112</v>
+        <v>0.0388961175642981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -4460,19 +4460,19 @@
         <v>15354</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8833</v>
+        <v>8639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25764</v>
+        <v>26732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02028763907389487</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0116713352653466</v>
+        <v>0.01141542599014225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03404309723883443</v>
+        <v>0.03532179078185612</v>
       </c>
     </row>
     <row r="11">
@@ -4489,19 +4489,19 @@
         <v>4019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13347</v>
+        <v>12900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009597271416567452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002277391412850239</v>
+        <v>0.002291876612711752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03186968373887563</v>
+        <v>0.03080204970552995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4776</v>
+        <v>5177</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002802530944016095</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01413092368914606</v>
+        <v>0.01531642551768996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -4531,19 +4531,19 @@
         <v>4967</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1866</v>
+        <v>985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14058</v>
+        <v>12736</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006562555186613373</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002465603305137561</v>
+        <v>0.001301631680219739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0185750487241653</v>
+        <v>0.01682821207334754</v>
       </c>
     </row>
     <row r="12">
@@ -4560,19 +4560,19 @@
         <v>9120</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3867</v>
+        <v>3927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18132</v>
+        <v>19798</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02177579797737022</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009232813346237337</v>
+        <v>0.009376466014556623</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04329544317815259</v>
+        <v>0.04727239157811025</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4581,19 +4581,19 @@
         <v>7073</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3024</v>
+        <v>2734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16143</v>
+        <v>15814</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02092593793620243</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008947834409576361</v>
+        <v>0.008088979307351321</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04775824169083832</v>
+        <v>0.04678528465947842</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -4602,19 +4602,19 @@
         <v>16193</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8970</v>
+        <v>9261</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27295</v>
+        <v>27997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02139622732702088</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01185277746794861</v>
+        <v>0.01223670936190055</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03606576390015906</v>
+        <v>0.03699351369911549</v>
       </c>
     </row>
     <row r="13">
@@ -4631,19 +4631,19 @@
         <v>10974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5924</v>
+        <v>5625</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19495</v>
+        <v>18680</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02620418519875731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01414613726546238</v>
+        <v>0.01343036599670609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04654921186636102</v>
+        <v>0.04460319874044789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4652,19 +4652,19 @@
         <v>8845</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3961</v>
+        <v>4065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18057</v>
+        <v>18160</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02616764922079085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01171732281585184</v>
+        <v>0.01202744277911549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05342057842913852</v>
+        <v>0.05372476236979497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -4673,19 +4673,19 @@
         <v>19819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12738</v>
+        <v>11697</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31016</v>
+        <v>31499</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02618786723550912</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01683107106582049</v>
+        <v>0.0154551510588001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04098279702255717</v>
+        <v>0.0416207333358842</v>
       </c>
     </row>
     <row r="14">
@@ -4702,19 +4702,19 @@
         <v>386219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372082</v>
+        <v>372292</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>396785</v>
+        <v>397951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9222111173987758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8884553516318417</v>
+        <v>0.8889568274095206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9474403805458353</v>
+        <v>0.9502237240163269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -4723,19 +4723,19 @@
         <v>314256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>302064</v>
+        <v>301929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322244</v>
+        <v>322759</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9297220648437545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8936521510121463</v>
+        <v>0.8932517277059634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9533526772466406</v>
+        <v>0.9548779562128963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>630</v>
@@ -4744,19 +4744,19 @@
         <v>700476</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>683355</v>
+        <v>683469</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>713757</v>
+        <v>716395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9255657111769617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9029435603210288</v>
+        <v>0.9030947176170896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9431150195031166</v>
+        <v>0.9466001211864074</v>
       </c>
     </row>
     <row r="15">
@@ -4848,19 +4848,19 @@
         <v>15766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9120</v>
+        <v>9269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25944</v>
+        <v>26038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02504861080561863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01449000193458674</v>
+        <v>0.0147264743145992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04121976825234796</v>
+        <v>0.04136778128492716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4869,19 +4869,19 @@
         <v>8199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4007</v>
+        <v>3901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16204</v>
+        <v>15340</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03164575593994987</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01546766604000217</v>
+        <v>0.01505823656971957</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0625428166943811</v>
+        <v>0.05920758227256977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -4890,19 +4890,19 @@
         <v>23965</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15671</v>
+        <v>15469</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35948</v>
+        <v>35090</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02697232642625998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0176378965801015</v>
+        <v>0.01741066498710968</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04045960304968364</v>
+        <v>0.0394940012555308</v>
       </c>
     </row>
     <row r="17">
@@ -4919,19 +4919,19 @@
         <v>3958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9849</v>
+        <v>9214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006288993838559934</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001571432739940963</v>
+        <v>0.001568809736973691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01564863211204103</v>
+        <v>0.01463898720963163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6205</v>
+        <v>6751</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007395492911077806</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02394923203838875</v>
+        <v>0.02605599036806603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -4961,19 +4961,19 @@
         <v>5874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2802</v>
+        <v>2032</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12219</v>
+        <v>11968</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00661164697210261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003153424396646927</v>
+        <v>0.002287480484331206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01375251034343659</v>
+        <v>0.01347037522730073</v>
       </c>
     </row>
     <row r="18">
@@ -4990,19 +4990,19 @@
         <v>23390</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14999</v>
+        <v>14675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33825</v>
+        <v>33648</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03716165064758269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02382938376630584</v>
+        <v>0.02331607482172799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05374115194283757</v>
+        <v>0.05345903503599764</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -5011,19 +5011,19 @@
         <v>4143</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1045</v>
+        <v>1161</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10275</v>
+        <v>10493</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01599265013911489</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004034740777428614</v>
+        <v>0.004483040896048673</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03965994521129689</v>
+        <v>0.04050208151377627</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -5032,19 +5032,19 @@
         <v>27534</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18413</v>
+        <v>17939</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39387</v>
+        <v>39732</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03098880828587948</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02072347273768773</v>
+        <v>0.0201906321899386</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04432979680651148</v>
+        <v>0.04471846792524588</v>
       </c>
     </row>
     <row r="19">
@@ -5061,19 +5061,19 @@
         <v>25100</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15753</v>
+        <v>15895</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37058</v>
+        <v>37724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03987895898484421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02502754855054981</v>
+        <v>0.02525338782388856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05887611463490232</v>
+        <v>0.05993571501680263</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5082,19 +5082,19 @@
         <v>4493</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1143</v>
+        <v>1234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10350</v>
+        <v>11284</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01734279186822837</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00441115214199741</v>
+        <v>0.004761646890827128</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03994950989491391</v>
+        <v>0.0435523007800815</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5103,19 +5103,19 @@
         <v>29594</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19558</v>
+        <v>19993</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44136</v>
+        <v>44176</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03330745330642434</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02201229227498357</v>
+        <v>0.02250198590783869</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04967463993402715</v>
+        <v>0.04971996106118571</v>
       </c>
     </row>
     <row r="20">
@@ -5132,19 +5132,19 @@
         <v>561200</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>545001</v>
+        <v>542877</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>577124</v>
+        <v>575710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8916217857233946</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8658851884098209</v>
+        <v>0.862511114017084</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9169207489662311</v>
+        <v>0.9146739473420339</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -5153,19 +5153,19 @@
         <v>240333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230739</v>
+        <v>231090</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247871</v>
+        <v>247552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.927623309141629</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8905916931729591</v>
+        <v>0.8919466885097194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9567171603105045</v>
+        <v>0.9554867573331508</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>752</v>
@@ -5174,19 +5174,19 @@
         <v>801533</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>780959</v>
+        <v>781625</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>817306</v>
+        <v>818433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9021197650093336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8789634287703483</v>
+        <v>0.879712678226113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9198714743948722</v>
+        <v>0.9211404407133845</v>
       </c>
     </row>
     <row r="21">
@@ -5278,19 +5278,19 @@
         <v>39960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29251</v>
+        <v>28175</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55536</v>
+        <v>56003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03447733394421238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02523788877260177</v>
+        <v>0.02430958682665606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04791717659152294</v>
+        <v>0.04831951607289293</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -5299,19 +5299,19 @@
         <v>26752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17211</v>
+        <v>17731</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40571</v>
+        <v>39553</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0349836427985894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0225068196105711</v>
+        <v>0.0231875230303512</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05305503137807097</v>
+        <v>0.05172351634756677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -5320,19 +5320,19 @@
         <v>66711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52135</v>
+        <v>50899</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89199</v>
+        <v>86289</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03467859704017533</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02710137494980031</v>
+        <v>0.02645867244044675</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04636836674244596</v>
+        <v>0.04485567057009744</v>
       </c>
     </row>
     <row r="23">
@@ -5349,19 +5349,19 @@
         <v>8146</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3858</v>
+        <v>3314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16668</v>
+        <v>17587</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007028419537085602</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003328503552847546</v>
+        <v>0.002859545910387368</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01438111388309291</v>
+        <v>0.01517414883512714</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -5370,19 +5370,19 @@
         <v>7859</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2833</v>
+        <v>3289</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17211</v>
+        <v>16947</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01027744407387417</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003704623660651477</v>
+        <v>0.00430142609545405</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02250696824740499</v>
+        <v>0.0221624895193432</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -5391,19 +5391,19 @@
         <v>16005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8745</v>
+        <v>8450</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27072</v>
+        <v>27105</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008319940970062056</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004545936621920414</v>
+        <v>0.004392640560578404</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01407286290110688</v>
+        <v>0.01408983642590164</v>
       </c>
     </row>
     <row r="24">
@@ -5420,19 +5420,19 @@
         <v>38394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27248</v>
+        <v>26821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53623</v>
+        <v>53707</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03312697457671667</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02350995513076095</v>
+        <v>0.02314158961168932</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04626610249747747</v>
+        <v>0.04633850254947349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -5441,19 +5441,19 @@
         <v>20465</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12232</v>
+        <v>12006</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32225</v>
+        <v>31423</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02676249298618175</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01599641723911044</v>
+        <v>0.01570079374436865</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04214088304373581</v>
+        <v>0.04109192059797422</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>52</v>
@@ -5462,19 +5462,19 @@
         <v>58859</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44531</v>
+        <v>45182</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77476</v>
+        <v>77086</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03059702619039741</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02314886060230549</v>
+        <v>0.02348722179576222</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04027454613114913</v>
+        <v>0.04007185303953243</v>
       </c>
     </row>
     <row r="25">
@@ -5491,19 +5491,19 @@
         <v>36159</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24891</v>
+        <v>25165</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51183</v>
+        <v>50885</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03119803352435445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02147651208921369</v>
+        <v>0.02171268143288591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04416142563086142</v>
+        <v>0.04390393818751929</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -5512,19 +5512,19 @@
         <v>27636</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18430</v>
+        <v>18124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40592</v>
+        <v>40609</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03614043559843413</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02410088557093543</v>
+        <v>0.02370096940849952</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05308238021080496</v>
+        <v>0.05310524030325719</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -5533,19 +5533,19 @@
         <v>63795</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47560</v>
+        <v>49449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82546</v>
+        <v>83660</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03316269034266538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02472307217179933</v>
+        <v>0.0257052690087122</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04291005039480689</v>
+        <v>0.04348889619206519</v>
       </c>
     </row>
     <row r="26">
@@ -5562,19 +5562,19 @@
         <v>1036350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1012475</v>
+        <v>1013061</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1057331</v>
+        <v>1057319</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8941692384176309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8735696355249997</v>
+        <v>0.8740749170498663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9122715617474076</v>
+        <v>0.9122609393629392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>636</v>
@@ -5583,19 +5583,19 @@
         <v>681979</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>662431</v>
+        <v>663167</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>699388</v>
+        <v>699197</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8918359845429206</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8662729883480275</v>
+        <v>0.8672357790898113</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9146020733086635</v>
+        <v>0.914352400310643</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1611</v>
@@ -5604,19 +5604,19 @@
         <v>1718329</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1687973</v>
+        <v>1687619</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1744101</v>
+        <v>1747980</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8932417454566998</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8774617183256146</v>
+        <v>0.8772778501127564</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9066387785843633</v>
+        <v>0.9086553811018089</v>
       </c>
     </row>
     <row r="27">
@@ -5708,19 +5708,19 @@
         <v>8503</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3774</v>
+        <v>4649</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15109</v>
+        <v>15179</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01665353597711882</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007391602171560804</v>
+        <v>0.009104759364388993</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02959142682146676</v>
+        <v>0.02972816610190716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -5729,19 +5729,19 @@
         <v>22563</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14087</v>
+        <v>13630</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34136</v>
+        <v>33548</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0296674456459132</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01852283652066986</v>
+        <v>0.01792129944464229</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04488362533302469</v>
+        <v>0.04411154671438954</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -5750,19 +5750,19 @@
         <v>31066</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21332</v>
+        <v>21402</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>43416</v>
+        <v>44074</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02443993816359575</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01678225022371579</v>
+        <v>0.01683695949317891</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03415535575845514</v>
+        <v>0.03467305224398019</v>
       </c>
     </row>
     <row r="29">
@@ -5779,19 +5779,19 @@
         <v>8417</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3945</v>
+        <v>3980</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16151</v>
+        <v>15101</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01648522259141695</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007726873260578243</v>
+        <v>0.007794657089984079</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03163106092701951</v>
+        <v>0.02957484090797991</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -5800,19 +5800,19 @@
         <v>5090</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1911</v>
+        <v>2019</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11127</v>
+        <v>11527</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006692545973507109</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002512705383257847</v>
+        <v>0.002654736939840213</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01463040652938509</v>
+        <v>0.01515594403766554</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -5821,19 +5821,19 @@
         <v>13507</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7445</v>
+        <v>7012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22351</v>
+        <v>22497</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01062612870113189</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005857155683995704</v>
+        <v>0.005516053443275225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01758356787544268</v>
+        <v>0.01769837042517369</v>
       </c>
     </row>
     <row r="30">
@@ -5850,19 +5850,19 @@
         <v>19113</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12039</v>
+        <v>11217</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29793</v>
+        <v>28601</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03743353236717967</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02357878814736394</v>
+        <v>0.02196806748809127</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05834966983455513</v>
+        <v>0.05601539105349414</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -5871,19 +5871,19 @@
         <v>15830</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8781</v>
+        <v>8882</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25459</v>
+        <v>26585</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02081431427785178</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01154619629402226</v>
+        <v>0.01167800592617782</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03347536733691317</v>
+        <v>0.03495537603229157</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>32</v>
@@ -5892,19 +5892,19 @@
         <v>34943</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24269</v>
+        <v>23807</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>47969</v>
+        <v>48598</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02749002427763353</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01909234043766672</v>
+        <v>0.01872896696104545</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03773742750117286</v>
+        <v>0.03823241174033173</v>
       </c>
     </row>
     <row r="31">
@@ -5921,19 +5921,19 @@
         <v>16051</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9237</v>
+        <v>8998</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25532</v>
+        <v>24723</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03143566645181995</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01808999510720346</v>
+        <v>0.01762159463181055</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05000335203755959</v>
+        <v>0.04842064893994226</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -5942,19 +5942,19 @@
         <v>20655</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13126</v>
+        <v>12887</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31829</v>
+        <v>31476</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02715828986517932</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01725953759853776</v>
+        <v>0.01694463441673897</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04185105526657228</v>
+        <v>0.04138675262726467</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -5963,19 +5963,19 @@
         <v>36706</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25389</v>
+        <v>25920</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>50070</v>
+        <v>49045</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02887645286772187</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01997317475235735</v>
+        <v>0.02039131215773224</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03938970301466798</v>
+        <v>0.03858353170911468</v>
       </c>
     </row>
     <row r="32">
@@ -5992,19 +5992,19 @@
         <v>458511</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>442107</v>
+        <v>443448</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>471357</v>
+        <v>471548</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8979920426124646</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8658651878504227</v>
+        <v>0.8684909277766208</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9231497785112759</v>
+        <v>0.9235248616435772</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>644</v>
@@ -6013,19 +6013,19 @@
         <v>696398</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>680083</v>
+        <v>678218</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>711421</v>
+        <v>711217</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9156674042375486</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.894215464160409</v>
+        <v>0.891762784954659</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9354202665664636</v>
+        <v>0.9351524013646598</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1081</v>
@@ -6034,19 +6034,19 @@
         <v>1154909</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1132311</v>
+        <v>1134632</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1172470</v>
+        <v>1175502</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.908567455989917</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8907892407563954</v>
+        <v>0.8926151536471143</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9223828337000552</v>
+        <v>0.9247680980702461</v>
       </c>
     </row>
     <row r="33">
@@ -6138,19 +6138,19 @@
         <v>2947</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8725</v>
+        <v>8780</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01108178984513038</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003560526528776206</v>
+        <v>0.003549561872462987</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03280339647860885</v>
+        <v>0.03300963544363716</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>33</v>
@@ -6159,19 +6159,19 @@
         <v>36001</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>24407</v>
+        <v>25673</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>49706</v>
+        <v>52912</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03248243167630199</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02202186062227045</v>
+        <v>0.02316335931362762</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04484777981515107</v>
+        <v>0.04774080618449582</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -6180,19 +6180,19 @@
         <v>38949</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>27826</v>
+        <v>27970</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>53145</v>
+        <v>53489</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02834075280774556</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02024752959352686</v>
+        <v>0.02035228147215755</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03867083660648844</v>
+        <v>0.03892121155616367</v>
       </c>
     </row>
     <row r="35">
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6114</v>
+        <v>6666</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00705032869448859</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02298721908290881</v>
+        <v>0.02506193958146972</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -6230,19 +6230,19 @@
         <v>8298</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3964</v>
+        <v>4048</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15567</v>
+        <v>15546</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007486819354035661</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003576322533706678</v>
+        <v>0.003652376395992078</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01404568227056089</v>
+        <v>0.01402677159754706</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -6251,19 +6251,19 @@
         <v>10173</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5251</v>
+        <v>5211</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18283</v>
+        <v>17701</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007402345058580878</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00382081799005254</v>
+        <v>0.003791534472738844</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01330371737696255</v>
+        <v>0.01288006615472379</v>
       </c>
     </row>
     <row r="36">
@@ -6280,19 +6280,19 @@
         <v>3846</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9331</v>
+        <v>8673</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01446148200427267</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003632597685341056</v>
+        <v>0.00361406779270587</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03508467153999571</v>
+        <v>0.03260810533877107</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>18</v>
@@ -6301,19 +6301,19 @@
         <v>18499</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11129</v>
+        <v>10990</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29092</v>
+        <v>29142</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0166905652021162</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01004104188102444</v>
+        <v>0.009916267515336292</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.026248238185535</v>
+        <v>0.02629397587708828</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -6322,19 +6322,19 @@
         <v>22345</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14188</v>
+        <v>13345</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>32602</v>
+        <v>31988</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01625916941270042</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0103238999516618</v>
+        <v>0.009710166530927815</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02372294801425669</v>
+        <v>0.02327555870032721</v>
       </c>
     </row>
     <row r="37">
@@ -6351,19 +6351,19 @@
         <v>11657</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5839</v>
+        <v>6103</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19965</v>
+        <v>19468</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04382896779171194</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02195367318006098</v>
+        <v>0.0229445383875486</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07506456310406683</v>
+        <v>0.07319642777263002</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -6372,19 +6372,19 @@
         <v>19419</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12234</v>
+        <v>12606</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29664</v>
+        <v>30216</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01752128219631481</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01103807217479051</v>
+        <v>0.01137393332365443</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02676501948840624</v>
+        <v>0.02726313838801311</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>31</v>
@@ -6393,19 +6393,19 @@
         <v>31076</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22077</v>
+        <v>21947</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>43499</v>
+        <v>43857</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02261262414627341</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01606397276881761</v>
+        <v>0.0159693534406795</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03165157236218898</v>
+        <v>0.03191211394456038</v>
       </c>
     </row>
     <row r="38">
@@ -6422,19 +6422,19 @@
         <v>245642</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>235879</v>
+        <v>235242</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>253341</v>
+        <v>252620</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9235774316643964</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8868688180426475</v>
+        <v>0.8844760334234125</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9525232960205533</v>
+        <v>0.9498121159689351</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>965</v>
@@ -6443,19 +6443,19 @@
         <v>1026111</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1007161</v>
+        <v>1004292</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1041067</v>
+        <v>1042003</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9258189015712314</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9087213382334857</v>
+        <v>0.9061323803874104</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9393128093032761</v>
+        <v>0.9401572585265914</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1208</v>
@@ -6464,19 +6464,19 @@
         <v>1271754</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1250773</v>
+        <v>1252217</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1288051</v>
+        <v>1287680</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9253851085746997</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9101187071168695</v>
+        <v>0.9111694202754295</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9372438999233117</v>
+        <v>0.9369734274112543</v>
       </c>
     </row>
     <row r="39">
@@ -6568,19 +6568,19 @@
         <v>96027</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>77382</v>
+        <v>76172</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>119531</v>
+        <v>119615</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02807003204625326</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0226196733156187</v>
+        <v>0.02226588811766511</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03494033879562457</v>
+        <v>0.0349649637469917</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>98</v>
@@ -6589,19 +6589,19 @@
         <v>106867</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>86579</v>
+        <v>87156</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>126880</v>
+        <v>127145</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0301524991383013</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02442844159474765</v>
+        <v>0.02459116914406937</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03579945505757763</v>
+        <v>0.03587414908145792</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>185</v>
@@ -6610,19 +6610,19 @@
         <v>202894</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>177454</v>
+        <v>174328</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>238311</v>
+        <v>236036</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02912968360001092</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02547728377872393</v>
+        <v>0.02502838695285067</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03421450808903861</v>
+        <v>0.03388794547182902</v>
       </c>
     </row>
     <row r="41">
@@ -6639,19 +6639,19 @@
         <v>28444</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18393</v>
+        <v>19036</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>40186</v>
+        <v>42013</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008314426306275137</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005376587178422499</v>
+        <v>0.005564413213538151</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01174685769238827</v>
+        <v>0.01228088431543694</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -6660,19 +6660,19 @@
         <v>27183</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17786</v>
+        <v>18168</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>38300</v>
+        <v>39759</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.007669742525227388</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005018371721722006</v>
+        <v>0.00512611898012691</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01080650996119347</v>
+        <v>0.01121805674475034</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>51</v>
@@ -6681,19 +6681,19 @@
         <v>55627</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>42678</v>
+        <v>42829</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>73486</v>
+        <v>73244</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007986382625355424</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006127307599776435</v>
+        <v>0.006149059052619405</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01055049834370606</v>
+        <v>0.01051577289847635</v>
       </c>
     </row>
     <row r="42">
@@ -6710,19 +6710,19 @@
         <v>104459</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>84824</v>
+        <v>84643</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>125428</v>
+        <v>128067</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03053466081184604</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02479513784956319</v>
+        <v>0.02474225210190721</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03666403767343827</v>
+        <v>0.03743565493145715</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>66</v>
@@ -6731,19 +6731,19 @@
         <v>72215</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>58027</v>
+        <v>56549</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>92290</v>
+        <v>92737</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.020375542654114</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01637249678010315</v>
+        <v>0.01595531698610854</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02603980973542135</v>
+        <v>0.02616577056032558</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>163</v>
@@ -6752,19 +6752,19 @@
         <v>176674</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>152686</v>
+        <v>147810</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>206184</v>
+        <v>206039</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02536525122945439</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02192126272619767</v>
+        <v>0.02122121176957381</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02960198394315449</v>
+        <v>0.02958120597861479</v>
       </c>
     </row>
     <row r="43">
@@ -6781,19 +6781,19 @@
         <v>114476</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>94540</v>
+        <v>94317</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>137419</v>
+        <v>137903</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03346288342362567</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02763535095467733</v>
+        <v>0.02756995392640519</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04016930383669474</v>
+        <v>0.04031080156756189</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>83</v>
@@ -6802,19 +6802,19 @@
         <v>90372</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>72973</v>
+        <v>72152</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>111075</v>
+        <v>110959</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0254984165276007</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02058941479076878</v>
+        <v>0.02035780526444871</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03133985987161518</v>
+        <v>0.03130719571548386</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>190</v>
@@ -6823,19 +6823,19 @@
         <v>204848</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>179553</v>
+        <v>178892</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>240933</v>
+        <v>239244</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02941020967264492</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02577857782689931</v>
+        <v>0.02568376268705279</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03459095407667883</v>
+        <v>0.03434848661794233</v>
       </c>
     </row>
     <row r="44">
@@ -6852,19 +6852,19 @@
         <v>3077590</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3038632</v>
+        <v>3037712</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>3110386</v>
+        <v>3111974</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8996179974119999</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8882303169605736</v>
+        <v>0.887961345208042</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9092047693075668</v>
+        <v>0.9096689991443209</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3012</v>
@@ -6873,19 +6873,19 @@
         <v>3247565</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3211644</v>
+        <v>3214545</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3278513</v>
+        <v>3278846</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9163037991547566</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9061688030616781</v>
+        <v>0.9069872566025711</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9250357605477663</v>
+        <v>0.9251298871126749</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5899</v>
@@ -6894,19 +6894,19 @@
         <v>6325155</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6268586</v>
+        <v>6267204</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6371982</v>
+        <v>6370467</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9081084728725344</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8999868220872018</v>
+        <v>0.8997882958579752</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9148314153717898</v>
+        <v>0.9146138625677218</v>
       </c>
     </row>
     <row r="45">
@@ -7240,19 +7240,19 @@
         <v>15930</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9063</v>
+        <v>8502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27054</v>
+        <v>27241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03721795879206303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02117464138947895</v>
+        <v>0.01986196648692382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06320624767120417</v>
+        <v>0.06364167316198303</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -7261,19 +7261,19 @@
         <v>13216</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6995</v>
+        <v>7385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22216</v>
+        <v>23483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03808005826295286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02015664517917684</v>
+        <v>0.0212788617053002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06401390800450808</v>
+        <v>0.06766318354938762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -7282,19 +7282,19 @@
         <v>29146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19723</v>
+        <v>19585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42440</v>
+        <v>41502</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03760397450847654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02544569836168759</v>
+        <v>0.02526850436412455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0547552041578732</v>
+        <v>0.05354513678923149</v>
       </c>
     </row>
     <row r="5">
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6044</v>
+        <v>4496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00216978395050959</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01411956340719894</v>
+        <v>0.01050333679261495</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4676</v>
+        <v>4653</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001198236310822511</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006032504175086319</v>
+        <v>0.006003354260158931</v>
       </c>
     </row>
     <row r="6">
@@ -7374,19 +7374,19 @@
         <v>11349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6185</v>
+        <v>5936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19134</v>
+        <v>20544</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02651500325015382</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01444944345659618</v>
+        <v>0.01386921337519333</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04470179392363299</v>
+        <v>0.04799719224426859</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -7395,19 +7395,19 @@
         <v>8163</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3814</v>
+        <v>3947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14933</v>
+        <v>15194</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02352034785316163</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01099071610452329</v>
+        <v>0.01137224553983045</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04302762492964297</v>
+        <v>0.04377924459418174</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -7416,19 +7416,19 @@
         <v>19512</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12067</v>
+        <v>12022</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29610</v>
+        <v>30135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02517410920310336</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01556885532366944</v>
+        <v>0.01551060608407346</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03820174213322339</v>
+        <v>0.038879139839642</v>
       </c>
     </row>
     <row r="7">
@@ -7445,19 +7445,19 @@
         <v>28824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18280</v>
+        <v>19195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42734</v>
+        <v>41086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06734028606352988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04270759371323029</v>
+        <v>0.04484468071753683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09983907001037857</v>
+        <v>0.09598814148344735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -7466,19 +7466,19 @@
         <v>32017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21669</v>
+        <v>22285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42768</v>
+        <v>44033</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09225247966200377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06243670425829295</v>
+        <v>0.06421108725577941</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1232323107702104</v>
+        <v>0.1268774969680843</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -7487,19 +7487,19 @@
         <v>60840</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45368</v>
+        <v>46274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76981</v>
+        <v>77880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07849502932003728</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05853237260290683</v>
+        <v>0.05970165426480781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09931897974282426</v>
+        <v>0.1004788098299885</v>
       </c>
     </row>
     <row r="8">
@@ -7516,19 +7516,19 @@
         <v>371000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354704</v>
+        <v>355441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>384177</v>
+        <v>385682</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8667569679437437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8286849054523511</v>
+        <v>0.8304083187752969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8975435276642512</v>
+        <v>0.9010599072165018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -7537,19 +7537,19 @@
         <v>293660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>279314</v>
+        <v>278304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>306658</v>
+        <v>307039</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8461471142218817</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8048127381627783</v>
+        <v>0.80190096597386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8836008753506874</v>
+        <v>0.8846973135246475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>625</v>
@@ -7558,19 +7558,19 @@
         <v>664659</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>643691</v>
+        <v>642783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>684654</v>
+        <v>683793</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8575286506575603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8304757430129701</v>
+        <v>0.8293042215016843</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8833254425760849</v>
+        <v>0.8822149357328828</v>
       </c>
     </row>
     <row r="9">
@@ -7662,19 +7662,19 @@
         <v>12487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6502</v>
+        <v>6572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22040</v>
+        <v>22522</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03335950236795349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01736861149019381</v>
+        <v>0.01755668554190472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05887912619364431</v>
+        <v>0.06016746140967952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -7683,19 +7683,19 @@
         <v>9456</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4140</v>
+        <v>4381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17597</v>
+        <v>17574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0255435397280872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01118265574465959</v>
+        <v>0.0118346423606151</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04753457394658085</v>
+        <v>0.04747324152040279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -7704,19 +7704,19 @@
         <v>21943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13588</v>
+        <v>13642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33870</v>
+        <v>33628</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0294732670156754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0182503228609955</v>
+        <v>0.0183235129548643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04549278292348698</v>
+        <v>0.04516817928082608</v>
       </c>
     </row>
     <row r="11">
@@ -7733,19 +7733,19 @@
         <v>8837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4144</v>
+        <v>4119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16978</v>
+        <v>17362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02360882865514792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01107063456410062</v>
+        <v>0.01100302155691448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04535476532180851</v>
+        <v>0.04638104791535401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -7754,19 +7754,19 @@
         <v>4130</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>947</v>
+        <v>1128</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10179</v>
+        <v>10122</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01115623009582942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002556817364559527</v>
+        <v>0.003046545626981003</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02749782110554067</v>
+        <v>0.02734329286382186</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -7775,19 +7775,19 @@
         <v>12967</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6889</v>
+        <v>7245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21841</v>
+        <v>21895</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01741717562675286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009252762636329624</v>
+        <v>0.009730773562887667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02933580983534283</v>
+        <v>0.02940865045672743</v>
       </c>
     </row>
     <row r="12">
@@ -7804,19 +7804,19 @@
         <v>8731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3997</v>
+        <v>3945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16699</v>
+        <v>17310</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02332387011719835</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01067890345878154</v>
+        <v>0.01053978645400772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04461157331739683</v>
+        <v>0.04624255992863653</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -7825,19 +7825,19 @@
         <v>8142</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4015</v>
+        <v>3946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15118</v>
+        <v>15182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02199311681391855</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01084497269201588</v>
+        <v>0.01065935579663909</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04083922132910359</v>
+        <v>0.04101194541138095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -7846,19 +7846,19 @@
         <v>16872</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9927</v>
+        <v>9867</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26643</v>
+        <v>26584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02266219595489001</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01333337313618416</v>
+        <v>0.01325288984206368</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03578497457620096</v>
+        <v>0.03570610825145566</v>
       </c>
     </row>
     <row r="13">
@@ -7875,19 +7875,19 @@
         <v>27041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18214</v>
+        <v>17777</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39890</v>
+        <v>40798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07223774780544724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04865710317691906</v>
+        <v>0.04748886945296869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.106563682663677</v>
+        <v>0.1089898722395441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -7896,19 +7896,19 @@
         <v>23999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15743</v>
+        <v>16218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34968</v>
+        <v>34762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06482964097779406</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04252601949159154</v>
+        <v>0.04380907391277456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09445909746131008</v>
+        <v>0.09390285682360272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -7917,19 +7917,19 @@
         <v>51040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39310</v>
+        <v>38767</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67149</v>
+        <v>66469</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06855430560214994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05279871152238493</v>
+        <v>0.05206971670755853</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09019138210635821</v>
+        <v>0.08927835589117947</v>
       </c>
     </row>
     <row r="14">
@@ -7946,19 +7946,19 @@
         <v>317233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>301619</v>
+        <v>300821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330533</v>
+        <v>331210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.847470051054253</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8057575419593491</v>
+        <v>0.8036252298955776</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8829980834859494</v>
+        <v>0.8848069579325495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -7967,19 +7967,19 @@
         <v>324461</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309643</v>
+        <v>310953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335695</v>
+        <v>336055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8764774723843708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8364494721527059</v>
+        <v>0.8399890248561571</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9068254317832813</v>
+        <v>0.9077983758631187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>605</v>
@@ -7988,19 +7988,19 @@
         <v>641694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>617884</v>
+        <v>621128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>659415</v>
+        <v>658551</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8618930558005318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8299131898737523</v>
+        <v>0.8342694532284063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8856950427636399</v>
+        <v>0.8845342357179157</v>
       </c>
     </row>
     <row r="15">
@@ -8092,19 +8092,19 @@
         <v>13098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7253</v>
+        <v>6767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21365</v>
+        <v>22001</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02509678230045893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01389676360319403</v>
+        <v>0.01296481283593164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04093524457583229</v>
+        <v>0.04215384911072657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8113,19 +8113,19 @@
         <v>3317</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8752</v>
+        <v>8611</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.019966801418194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.006469312806881842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0526828432733969</v>
+        <v>0.05183641224111898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -8134,19 +8134,19 @@
         <v>16415</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9273</v>
+        <v>9354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26387</v>
+        <v>25948</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02385817531425556</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01347772060058383</v>
+        <v>0.01359570270525581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03835165165054966</v>
+        <v>0.03771316359404694</v>
       </c>
     </row>
     <row r="17">
@@ -8163,19 +8163,19 @@
         <v>6577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2975</v>
+        <v>2382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14364</v>
+        <v>14191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01260245462455945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005700206590686504</v>
+        <v>0.00456485614451233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02752096471599116</v>
+        <v>0.02718963306913782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3957</v>
+        <v>4393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005253740982628872</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02382164765547438</v>
+        <v>0.02644385509978947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -8205,19 +8205,19 @@
         <v>7450</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3459</v>
+        <v>2975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15086</v>
+        <v>14253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01082814624692579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005027303614358491</v>
+        <v>0.004323853715541694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02192557944381624</v>
+        <v>0.02071572542948039</v>
       </c>
     </row>
     <row r="18">
@@ -8234,19 +8234,19 @@
         <v>32252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22837</v>
+        <v>21833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47030</v>
+        <v>44800</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06179554419720101</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04375693223959638</v>
+        <v>0.04183302395560363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09011035042385493</v>
+        <v>0.08583829129662092</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -8255,19 +8255,19 @@
         <v>5185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11142</v>
+        <v>11748</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03121286774870724</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01185339179650429</v>
+        <v>0.01179959313895177</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06707131397111482</v>
+        <v>0.07071827912040823</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -8276,19 +8276,19 @@
         <v>37437</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26847</v>
+        <v>27382</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51007</v>
+        <v>50715</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05441151732161212</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03901915026955975</v>
+        <v>0.03979674081228914</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0741342149809863</v>
+        <v>0.073710428565863</v>
       </c>
     </row>
     <row r="19">
@@ -8305,19 +8305,19 @@
         <v>47143</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34700</v>
+        <v>34129</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62179</v>
+        <v>61421</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09032752834676616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06648526025971656</v>
+        <v>0.06539239301125591</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1191358898174656</v>
+        <v>0.1176843920772546</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -8326,19 +8326,19 @@
         <v>11166</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5877</v>
+        <v>5827</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19342</v>
+        <v>20013</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06721748493212609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03537555413989411</v>
+        <v>0.03507855441614476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1164337712781867</v>
+        <v>0.1204704690196859</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -8347,19 +8347,19 @@
         <v>58309</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44240</v>
+        <v>45469</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75538</v>
+        <v>76135</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08474772953624926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06429942039079974</v>
+        <v>0.06608452478727211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1097878639438456</v>
+        <v>0.110655508904714</v>
       </c>
     </row>
     <row r="20">
@@ -8376,19 +8376,19 @@
         <v>422843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>404316</v>
+        <v>402799</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>441524</v>
+        <v>440956</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8101776905310144</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7746801820812935</v>
+        <v>0.7717718072642082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8459709071470657</v>
+        <v>0.8448818867513911</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -8397,19 +8397,19 @@
         <v>145582</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136261</v>
+        <v>135706</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153043</v>
+        <v>152888</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8763491049183438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8202442975047841</v>
+        <v>0.8169034148469543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9212647695118749</v>
+        <v>0.920327795815457</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>545</v>
@@ -8418,19 +8418,19 @@
         <v>568424</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>547487</v>
+        <v>546942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>589103</v>
+        <v>585721</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8261544315809572</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7957240704253188</v>
+        <v>0.7949322320718997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8562094979450264</v>
+        <v>0.8512934694510631</v>
       </c>
     </row>
     <row r="21">
@@ -8522,19 +8522,19 @@
         <v>45287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33768</v>
+        <v>33348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59033</v>
+        <v>61753</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03942984038375439</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02940038490992278</v>
+        <v>0.02903498585007856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05139770011525736</v>
+        <v>0.05376623102617207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -8543,19 +8543,19 @@
         <v>23088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14603</v>
+        <v>14623</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33629</v>
+        <v>34337</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02795627123870795</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01768147143690929</v>
+        <v>0.01770558053455016</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04071902481351915</v>
+        <v>0.04157595407939458</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -8564,19 +8564,19 @@
         <v>68376</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53130</v>
+        <v>54135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87766</v>
+        <v>86483</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03463061188616975</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02690914352043194</v>
+        <v>0.02741827375467071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.044451489825893</v>
+        <v>0.04380171462726488</v>
       </c>
     </row>
     <row r="23">
@@ -8593,19 +8593,19 @@
         <v>11941</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6131</v>
+        <v>6273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20751</v>
+        <v>21296</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01039671413861811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005337675098056468</v>
+        <v>0.005461590613874336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01806736049299189</v>
+        <v>0.01854143697321797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -8614,19 +8614,19 @@
         <v>6482</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2725</v>
+        <v>2716</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11997</v>
+        <v>12927</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007848243968285909</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003299398007009174</v>
+        <v>0.003288334029487775</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01452672171296132</v>
+        <v>0.01565214641720291</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -8635,19 +8635,19 @@
         <v>18423</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11266</v>
+        <v>10786</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28226</v>
+        <v>29100</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009330725821287659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00570603910227851</v>
+        <v>0.005462737803703467</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01429565572604988</v>
+        <v>0.01473864898701868</v>
       </c>
     </row>
     <row r="24">
@@ -8664,19 +8664,19 @@
         <v>47698</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35498</v>
+        <v>34614</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>64083</v>
+        <v>63271</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04152894043164115</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03090660042354194</v>
+        <v>0.03013714380913326</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05579423862874972</v>
+        <v>0.05508730974493275</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -8685,19 +8685,19 @@
         <v>19095</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12477</v>
+        <v>10693</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30126</v>
+        <v>29101</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02312041599406345</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01510707579963444</v>
+        <v>0.01294789652046284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03647764957836856</v>
+        <v>0.03523610705452117</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -8706,19 +8706,19 @@
         <v>66793</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50515</v>
+        <v>51691</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>84155</v>
+        <v>85592</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03382892015351797</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02558440226065918</v>
+        <v>0.02618004232230505</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04262251992865568</v>
+        <v>0.04335025851621518</v>
       </c>
     </row>
     <row r="25">
@@ -8735,19 +8735,19 @@
         <v>74473</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58427</v>
+        <v>60067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>93788</v>
+        <v>94654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06484098402491302</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05086977268815283</v>
+        <v>0.05229831544671523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08165699216455258</v>
+        <v>0.08241123903051917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -8756,19 +8756,19 @@
         <v>62929</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49185</v>
+        <v>48795</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80048</v>
+        <v>80467</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07619673630412656</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05955540826282827</v>
+        <v>0.05908325782598681</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09692532197655598</v>
+        <v>0.0974322448700036</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>129</v>
@@ -8777,19 +8777,19 @@
         <v>137402</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>116055</v>
+        <v>115761</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161798</v>
+        <v>161068</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06959093142671539</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05877909214557286</v>
+        <v>0.05863002629418396</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08194686017353746</v>
+        <v>0.08157708007344328</v>
       </c>
     </row>
     <row r="26">
@@ -8806,19 +8806,19 @@
         <v>969155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>940748</v>
+        <v>941624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>991882</v>
+        <v>991656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8438035210210734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8190707383311658</v>
+        <v>0.8198339411205454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8635907852458293</v>
+        <v>0.8633944313562251</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>691</v>
@@ -8827,19 +8827,19 @@
         <v>714282</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>692575</v>
+        <v>693942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>732618</v>
+        <v>733386</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8648783324948162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8385942606411899</v>
+        <v>0.8402492233133992</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8870795718242541</v>
+        <v>0.8880095344475285</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1626</v>
@@ -8848,19 +8848,19 @@
         <v>1683437</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1652345</v>
+        <v>1651059</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1715153</v>
+        <v>1714946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8526188107123092</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.83687173256098</v>
+        <v>0.8362202307595338</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8686820260072204</v>
+        <v>0.8685772014505054</v>
       </c>
     </row>
     <row r="27">
@@ -8952,19 +8952,19 @@
         <v>15006</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8779</v>
+        <v>8973</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24974</v>
+        <v>24711</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02420999637668472</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01416323613714359</v>
+        <v>0.01447719882874473</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04029262840004944</v>
+        <v>0.03986820540331325</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -8973,19 +8973,19 @@
         <v>21662</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13587</v>
+        <v>13598</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32844</v>
+        <v>34034</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02934301064741934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01840443313258521</v>
+        <v>0.01841987119067753</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04448909893076556</v>
+        <v>0.04610121360223463</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>35</v>
@@ -8994,19 +8994,19 @@
         <v>36668</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26482</v>
+        <v>26976</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>50293</v>
+        <v>52161</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02700031787003666</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01949959267007937</v>
+        <v>0.01986372030636071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03703293194170015</v>
+        <v>0.0384086913601132</v>
       </c>
     </row>
     <row r="29">
@@ -9023,19 +9023,19 @@
         <v>8453</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3973</v>
+        <v>4375</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15840</v>
+        <v>15949</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.013637467909109</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006409444072180492</v>
+        <v>0.007058313754393587</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02555664916148742</v>
+        <v>0.02573112320664996</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -9044,19 +9044,19 @@
         <v>4963</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1900</v>
+        <v>1933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10686</v>
+        <v>11048</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006722309565997203</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00257360456324409</v>
+        <v>0.002618491892238512</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0144752080325817</v>
+        <v>0.01496578306352885</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -9065,19 +9065,19 @@
         <v>13415</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7631</v>
+        <v>7652</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22817</v>
+        <v>21684</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009878367712421779</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005618870710971357</v>
+        <v>0.005634653061111038</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01680149682885859</v>
+        <v>0.01596658983834613</v>
       </c>
     </row>
     <row r="30">
@@ -9094,19 +9094,19 @@
         <v>23366</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15251</v>
+        <v>15168</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35015</v>
+        <v>35569</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0376989657950219</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02460611124268952</v>
+        <v>0.02447232050744036</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05649257107706122</v>
+        <v>0.05738727457658144</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -9115,19 +9115,19 @@
         <v>19738</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12275</v>
+        <v>12361</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31316</v>
+        <v>30031</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02673665172084472</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01662672775276331</v>
+        <v>0.01674321167647656</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0424197493473152</v>
+        <v>0.04067915061412</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -9136,19 +9136,19 @@
         <v>43105</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30915</v>
+        <v>30882</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>56671</v>
+        <v>57462</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0317398199667222</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02276387703270505</v>
+        <v>0.02273964747868719</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04172914474092137</v>
+        <v>0.0423119549320911</v>
       </c>
     </row>
     <row r="31">
@@ -9165,19 +9165,19 @@
         <v>32731</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22771</v>
+        <v>21958</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44860</v>
+        <v>44090</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0528079556228671</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03673797084390068</v>
+        <v>0.03542605031529489</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07237705917846919</v>
+        <v>0.07113362009317752</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -9186,19 +9186,19 @@
         <v>29773</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19538</v>
+        <v>20544</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42435</v>
+        <v>43049</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04032887111676711</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0264653949312517</v>
+        <v>0.02782829221229626</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05748122292618664</v>
+        <v>0.05831306267639935</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -9207,19 +9207,19 @@
         <v>62504</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>47515</v>
+        <v>48685</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>80140</v>
+        <v>81185</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04602428897435367</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03498771160747122</v>
+        <v>0.03584895885851636</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05901100416449667</v>
+        <v>0.05978044399371651</v>
       </c>
     </row>
     <row r="32">
@@ -9236,19 +9236,19 @@
         <v>540258</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>519980</v>
+        <v>523324</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>554815</v>
+        <v>556807</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8716456142963173</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8389292925680041</v>
+        <v>0.8443236533595302</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8951313045029368</v>
+        <v>0.8983450946951699</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>628</v>
@@ -9257,19 +9257,19 @@
         <v>662108</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>643488</v>
+        <v>643938</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>677749</v>
+        <v>677994</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8968691569489716</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8716466493203481</v>
+        <v>0.8722563501437357</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9180551360279123</v>
+        <v>0.9183874880409042</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1148</v>
@@ -9278,19 +9278,19 @@
         <v>1202366</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1177485</v>
+        <v>1173689</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1225806</v>
+        <v>1224321</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8853572054764657</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8670357911673252</v>
+        <v>0.8642406853888934</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9026167826261705</v>
+        <v>0.9015235524265216</v>
       </c>
     </row>
     <row r="33">
@@ -9382,19 +9382,19 @@
         <v>8243</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4134</v>
+        <v>3584</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15578</v>
+        <v>15577</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02880484617172489</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01444435914168584</v>
+        <v>0.01252490326465857</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05443334749367752</v>
+        <v>0.05443279535831799</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>20</v>
@@ -9403,19 +9403,19 @@
         <v>20099</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13374</v>
+        <v>12953</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30356</v>
+        <v>30793</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01859079443831942</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01237025216506731</v>
+        <v>0.01198062951620405</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02807803057313994</v>
+        <v>0.02848194173836418</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>28</v>
@@ -9424,19 +9424,19 @@
         <v>28343</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19620</v>
+        <v>19083</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>39395</v>
+        <v>39400</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02072856411099407</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01434903448819433</v>
+        <v>0.01395650452956973</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0288115506342609</v>
+        <v>0.02881530532150979</v>
       </c>
     </row>
     <row r="35">
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6080</v>
+        <v>6616</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006603651675082498</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02124712272436794</v>
+        <v>0.02311835347770183</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -9474,19 +9474,19 @@
         <v>6757</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2941</v>
+        <v>2907</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13880</v>
+        <v>12749</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.006249642322111305</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002720451958064237</v>
+        <v>0.002688735068788346</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0128382713996173</v>
+        <v>0.01179191192898779</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -9495,19 +9495,19 @@
         <v>8647</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4635</v>
+        <v>4534</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15675</v>
+        <v>15531</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006323735392949187</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003389563283407034</v>
+        <v>0.003315838033165283</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01146416428060662</v>
+        <v>0.01135841795189236</v>
       </c>
     </row>
     <row r="36">
@@ -9524,19 +9524,19 @@
         <v>7306</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2981</v>
+        <v>3432</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14354</v>
+        <v>14367</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0255305054354526</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01041810932765024</v>
+        <v>0.01199142531471113</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05015673960354852</v>
+        <v>0.05020281980214844</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -9545,19 +9545,19 @@
         <v>36167</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26153</v>
+        <v>26178</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>49336</v>
+        <v>51732</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03345270914650737</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02419037794164721</v>
+        <v>0.02421287807671155</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04563347336397422</v>
+        <v>0.04784898444280787</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>41</v>
@@ -9566,19 +9566,19 @@
         <v>43473</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>31330</v>
+        <v>31373</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>58704</v>
+        <v>58666</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03179461622938867</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02291342173154246</v>
+        <v>0.02294513228960069</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04293360538737936</v>
+        <v>0.04290612215878241</v>
       </c>
     </row>
     <row r="37">
@@ -9595,19 +9595,19 @@
         <v>15759</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9243</v>
+        <v>8717</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24801</v>
+        <v>25805</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05506761090814854</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03229902585368298</v>
+        <v>0.03045978321895876</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08666435439797573</v>
+        <v>0.09017068750835225</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -9616,19 +9616,19 @@
         <v>60345</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46821</v>
+        <v>45984</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>78375</v>
+        <v>77772</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05581628891319929</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0433068342716865</v>
+        <v>0.04253229249187577</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07249245549886413</v>
+        <v>0.07193466787791207</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>70</v>
@@ -9637,19 +9637,19 @@
         <v>76104</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>60493</v>
+        <v>59953</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>93543</v>
+        <v>94393</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05565959290503619</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04424184180525954</v>
+        <v>0.04384739405745024</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0684133267451706</v>
+        <v>0.0690354322734295</v>
       </c>
     </row>
     <row r="38">
@@ -9666,19 +9666,19 @@
         <v>252978</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>241107</v>
+        <v>239953</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>262900</v>
+        <v>262763</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8839933858095915</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8425140623481751</v>
+        <v>0.8384811486799981</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9186655211650052</v>
+        <v>0.9181860818573806</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>875</v>
@@ -9687,19 +9687,19 @@
         <v>957775</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>934877</v>
+        <v>932665</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>976220</v>
+        <v>977324</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8858905651798626</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8647105411302153</v>
+        <v>0.8626650317969842</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.902950703364692</v>
+        <v>0.9039716454291388</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1114</v>
@@ -9708,19 +9708,19 @@
         <v>1210752</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1186956</v>
+        <v>1186537</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1234677</v>
+        <v>1234286</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8854934913616319</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8680900587335614</v>
+        <v>0.8677836375890406</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9029913693696222</v>
+        <v>0.9027049800997624</v>
       </c>
     </row>
     <row r="39">
@@ -9812,19 +9812,19 @@
         <v>110053</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>89963</v>
+        <v>90711</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>132495</v>
+        <v>132339</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03257130229351629</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02662557012877495</v>
+        <v>0.02684680459481141</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03921337330519444</v>
+        <v>0.03916737085158182</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>87</v>
@@ -9833,19 +9833,19 @@
         <v>90839</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>71578</v>
+        <v>72093</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>113734</v>
+        <v>110017</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.025743355335182</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02028491426348853</v>
+        <v>0.02043087567893178</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03223164084571453</v>
+        <v>0.0311784640714718</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>189</v>
@@ -9854,19 +9854,19 @@
         <v>200891</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>173631</v>
+        <v>175580</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>229735</v>
+        <v>231620</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.029083286694338</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02513682779863687</v>
+        <v>0.02541888235934264</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03325895473539985</v>
+        <v>0.03353191172169158</v>
       </c>
     </row>
     <row r="41">
@@ -9883,19 +9883,19 @@
         <v>38627</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>26945</v>
+        <v>27557</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>51244</v>
+        <v>54356</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01143218918281988</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007974716911657451</v>
+        <v>0.008155757740125703</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01516629217949531</v>
+        <v>0.01608728906075342</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -9904,19 +9904,19 @@
         <v>23204</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>15386</v>
+        <v>15057</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>34292</v>
+        <v>34972</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006575869411569716</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004360243886248968</v>
+        <v>0.004267038508045098</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.009718244316162908</v>
+        <v>0.009910980976417853</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>61</v>
@@ -9925,19 +9925,19 @@
         <v>61831</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>47407</v>
+        <v>47127</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>80128</v>
+        <v>77058</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008951367462896789</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00686311347163786</v>
+        <v>0.006822629916417925</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01160018121599226</v>
+        <v>0.01115575079779391</v>
       </c>
     </row>
     <row r="42">
@@ -9954,19 +9954,19 @@
         <v>130703</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>108618</v>
+        <v>108896</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>155637</v>
+        <v>155773</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03868298403575253</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03214687260529514</v>
+        <v>0.03222886871535807</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0460624015311618</v>
+        <v>0.04610267795681799</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>92</v>
@@ -9975,19 +9975,19 @@
         <v>96490</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>78692</v>
+        <v>77141</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>118862</v>
+        <v>118451</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02734477277480245</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02230091089141431</v>
+        <v>0.02186148807050751</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0336849391572553</v>
+        <v>0.03356859344126469</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>212</v>
@@ -9996,19 +9996,19 @@
         <v>227192</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>198891</v>
+        <v>201477</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>258931</v>
+        <v>260248</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03289092706953663</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02879367193120547</v>
+        <v>0.02916802167131723</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03748569774892519</v>
+        <v>0.03767645913750449</v>
       </c>
     </row>
     <row r="43">
@@ -10025,19 +10025,19 @@
         <v>225971</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>199199</v>
+        <v>198458</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>259070</v>
+        <v>261073</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.06687875133343972</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05895510827532573</v>
+        <v>0.05873585380149658</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07667459191795775</v>
+        <v>0.07726738259528089</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>207</v>
@@ -10046,19 +10046,19 @@
         <v>220229</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>195430</v>
+        <v>193704</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>251003</v>
+        <v>252005</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06241211234807089</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05538415680834368</v>
+        <v>0.05489509109441976</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07113321483064353</v>
+        <v>0.07141712196548509</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>415</v>
@@ -10067,19 +10067,19 @@
         <v>446200</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>401982</v>
+        <v>405526</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>487224</v>
+        <v>487518</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06459699569709174</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05819547143440798</v>
+        <v>0.05870843715914227</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07053599988810041</v>
+        <v>0.07057855491554564</v>
       </c>
     </row>
     <row r="44">
@@ -10096,19 +10096,19 @@
         <v>2873466</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2829267</v>
+        <v>2826056</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2917176</v>
+        <v>2914702</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8504347731544716</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8373534297422767</v>
+        <v>0.836403293745786</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8633713599085613</v>
+        <v>0.8626391602765098</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2913</v>
@@ -10117,19 +10117,19 @@
         <v>3097868</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3058941</v>
+        <v>3050593</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3134003</v>
+        <v>3132269</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.877923890130375</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8668920853783626</v>
+        <v>0.8645263598155232</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8881643751774472</v>
+        <v>0.8876729607391439</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5663</v>
@@ -10138,19 +10138,19 @@
         <v>5971334</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5919292</v>
+        <v>5911913</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6035391</v>
+        <v>6031261</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8644774230761368</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8569432216745968</v>
+        <v>0.8558750100048922</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8737510805734147</v>
+        <v>0.8731531364966711</v>
       </c>
     </row>
     <row r="45">
@@ -10484,19 +10484,19 @@
         <v>23458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14512</v>
+        <v>14749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37042</v>
+        <v>36216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04260246099848636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02635616781993884</v>
+        <v>0.02678557376318538</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06727334839540319</v>
+        <v>0.06577311749521712</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -10505,19 +10505,19 @@
         <v>30729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22203</v>
+        <v>22190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41682</v>
+        <v>41117</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06291675218956651</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04545932818262381</v>
+        <v>0.04543406304957592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08534296523182457</v>
+        <v>0.08418496482292066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -10526,19 +10526,19 @@
         <v>54187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41376</v>
+        <v>41614</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70095</v>
+        <v>70058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05215149139492144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03982192169752524</v>
+        <v>0.04005059044515092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06746179021840464</v>
+        <v>0.06742642516619668</v>
       </c>
     </row>
     <row r="5">
@@ -10555,19 +10555,19 @@
         <v>15950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8999</v>
+        <v>8727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26006</v>
+        <v>25645</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02896784866804829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0163438290901953</v>
+        <v>0.01584892028494486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04723065692949188</v>
+        <v>0.04657479089962369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -10576,19 +10576,19 @@
         <v>17041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11043</v>
+        <v>10449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27439</v>
+        <v>26335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03489053983906572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02261084696853705</v>
+        <v>0.02139401962085818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05618086257305391</v>
+        <v>0.0539207648172519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -10597,19 +10597,19 @@
         <v>32991</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23068</v>
+        <v>23292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46757</v>
+        <v>44646</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03175189648388232</v>
+        <v>0.03175189648388231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02220136032067793</v>
+        <v>0.02241669741567872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04500089465605056</v>
+        <v>0.04296877550914442</v>
       </c>
     </row>
     <row r="6">
@@ -10626,19 +10626,19 @@
         <v>23844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16034</v>
+        <v>16094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34866</v>
+        <v>36505</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04330449653180629</v>
+        <v>0.04330449653180628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02911930792488448</v>
+        <v>0.02922973937449552</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06332166464986273</v>
+        <v>0.06629831376317558</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -10647,19 +10647,19 @@
         <v>20665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14266</v>
+        <v>14459</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29367</v>
+        <v>29656</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04231154271703574</v>
+        <v>0.04231154271703573</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02920963983236899</v>
+        <v>0.02960383682052684</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06012781790002687</v>
+        <v>0.0607197418800548</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -10668,19 +10668,19 @@
         <v>44510</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33451</v>
+        <v>32979</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56703</v>
+        <v>59764</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04283774403375883</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03219443848892464</v>
+        <v>0.0317406718291395</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05457271287221979</v>
+        <v>0.05751885247744127</v>
       </c>
     </row>
     <row r="7">
@@ -10697,19 +10697,19 @@
         <v>87484</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70820</v>
+        <v>69818</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107398</v>
+        <v>107072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1588837144294648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1286183439728749</v>
+        <v>0.126800161951527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.195050415005692</v>
+        <v>0.1944587392566615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -10718,19 +10718,19 @@
         <v>60261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48628</v>
+        <v>48794</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74999</v>
+        <v>72818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1233811441669406</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09956440570648654</v>
+        <v>0.09990301416463553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1535576205670742</v>
+        <v>0.149092569991685</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -10739,19 +10739,19 @@
         <v>147745</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126750</v>
+        <v>126515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171329</v>
+        <v>172268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.142195210784441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1219891694178975</v>
+        <v>0.1217626800236386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1648937976126135</v>
+        <v>0.1657972747499566</v>
       </c>
     </row>
     <row r="8">
@@ -10768,19 +10768,19 @@
         <v>399882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>374525</v>
+        <v>376001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>420861</v>
+        <v>420668</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7262414793721942</v>
+        <v>0.7262414793721943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6801902519310886</v>
+        <v>0.6828709816547157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7643424246323052</v>
+        <v>0.7639927022413003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>510</v>
@@ -10789,19 +10789,19 @@
         <v>359715</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340352</v>
+        <v>342098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>376548</v>
+        <v>376839</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7365000210873915</v>
+        <v>0.7365000210873914</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6968560668262137</v>
+        <v>0.7004314354197544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7709653233180903</v>
+        <v>0.7715602608902674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>922</v>
@@ -10810,19 +10810,19 @@
         <v>759596</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732084</v>
+        <v>728119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>787682</v>
+        <v>786354</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7310636573029965</v>
+        <v>0.7310636573029964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7045843600430961</v>
+        <v>0.7007690249377186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7580942622870458</v>
+        <v>0.7568162458115179</v>
       </c>
     </row>
     <row r="9">
@@ -10914,19 +10914,19 @@
         <v>19430</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11352</v>
+        <v>11243</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31794</v>
+        <v>30955</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04020985312054832</v>
+        <v>0.04020985312054833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02349236892520925</v>
+        <v>0.02326634771693975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06579785237696932</v>
+        <v>0.06406067078016245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -10935,19 +10935,19 @@
         <v>28564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19975</v>
+        <v>21493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38563</v>
+        <v>39022</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06750474637816761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04720621961877275</v>
+        <v>0.05079457299020448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09113399692453342</v>
+        <v>0.09221919705795054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -10956,19 +10956,19 @@
         <v>47994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36071</v>
+        <v>36870</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62974</v>
+        <v>64048</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05295280596209623</v>
+        <v>0.05295280596209622</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03979765411473862</v>
+        <v>0.04067993515431795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06948049831715875</v>
+        <v>0.07066535927157047</v>
       </c>
     </row>
     <row r="11">
@@ -10985,19 +10985,19 @@
         <v>11299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5357</v>
+        <v>6110</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20313</v>
+        <v>20712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02338276301464143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01108521245263267</v>
+        <v>0.01264403784805499</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04203663537726649</v>
+        <v>0.04286224534861036</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -11006,19 +11006,19 @@
         <v>10152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6162</v>
+        <v>5657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17058</v>
+        <v>16433</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02399216225199381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01456127484544763</v>
+        <v>0.01336921814734254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04031171304903614</v>
+        <v>0.03883614049268976</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -11027,19 +11027,19 @@
         <v>21451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13064</v>
+        <v>14026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31344</v>
+        <v>31691</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02366726845930328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01441395232659293</v>
+        <v>0.01547517201204563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03458302266195538</v>
+        <v>0.03496545186888968</v>
       </c>
     </row>
     <row r="12">
@@ -11056,19 +11056,19 @@
         <v>19254</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11640</v>
+        <v>12175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28444</v>
+        <v>29570</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03984511843360947</v>
+        <v>0.03984511843360946</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02408910322971735</v>
+        <v>0.02519689097149368</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05886424215487399</v>
+        <v>0.06119537743794032</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -11077,19 +11077,19 @@
         <v>21769</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15117</v>
+        <v>15011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32007</v>
+        <v>31311</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05144526250247131</v>
+        <v>0.05144526250247132</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03572642612818028</v>
+        <v>0.03547593852744017</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07564214867103075</v>
+        <v>0.07399575700253402</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -11098,19 +11098,19 @@
         <v>41022</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30781</v>
+        <v>31136</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>55141</v>
+        <v>55084</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04526078675769805</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03396090969461512</v>
+        <v>0.03435264439437717</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06083824652522547</v>
+        <v>0.0607757725134245</v>
       </c>
     </row>
     <row r="13">
@@ -11127,19 +11127,19 @@
         <v>82001</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66435</v>
+        <v>66257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100716</v>
+        <v>99993</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1697003282933309</v>
+        <v>0.1697003282933308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1374856574708705</v>
+        <v>0.1371172383299205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2084300725442235</v>
+        <v>0.206933039653801</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -11148,19 +11148,19 @@
         <v>62278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50443</v>
+        <v>50448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76788</v>
+        <v>75213</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1471795929412771</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1192105649739026</v>
+        <v>0.1192212547537147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1814717385010622</v>
+        <v>0.1777475357592817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -11169,19 +11169,19 @@
         <v>144279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123096</v>
+        <v>123557</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166803</v>
+        <v>167090</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1591862491269619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1358143557560118</v>
+        <v>0.1363234826686278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1840372073718505</v>
+        <v>0.1843533735399836</v>
       </c>
     </row>
     <row r="14">
@@ -11198,19 +11198,19 @@
         <v>351228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>329812</v>
+        <v>328160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370992</v>
+        <v>370627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7268619371378698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6825406103013191</v>
+        <v>0.6791220464524901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7677613673015826</v>
+        <v>0.767006893412007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>423</v>
@@ -11219,19 +11219,19 @@
         <v>300380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283608</v>
+        <v>283687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>317178</v>
+        <v>317286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.70987823592609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6702412765981663</v>
+        <v>0.6704281157668875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7495758759034734</v>
+        <v>0.7498306529536104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>776</v>
@@ -11240,19 +11240,19 @@
         <v>651608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624799</v>
+        <v>624871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>675962</v>
+        <v>679972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7189328896939406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6893537852284858</v>
+        <v>0.6894329191052579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7458023404316571</v>
+        <v>0.7502272680028295</v>
       </c>
     </row>
     <row r="15">
@@ -11344,19 +11344,19 @@
         <v>31074</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21488</v>
+        <v>21706</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43766</v>
+        <v>45591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06588955003062645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04556212852935815</v>
+        <v>0.04602411741480272</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09280025474237912</v>
+        <v>0.0966706341636337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -11365,19 +11365,19 @@
         <v>10767</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6493</v>
+        <v>5820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17437</v>
+        <v>18322</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0574262039390324</v>
+        <v>0.05742620393903241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03462767071493937</v>
+        <v>0.03104228716524148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09299669727811041</v>
+        <v>0.09771726874471373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -11386,19 +11386,19 @@
         <v>41842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31123</v>
+        <v>30638</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56687</v>
+        <v>56247</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06348197493485676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04722025035972072</v>
+        <v>0.0464841192583893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08600555910108459</v>
+        <v>0.08533780178375933</v>
       </c>
     </row>
     <row r="17">
@@ -11415,19 +11415,19 @@
         <v>8796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4244</v>
+        <v>3896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16607</v>
+        <v>16193</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01865017523038067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008997917358606135</v>
+        <v>0.008260001323809583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03521314762836225</v>
+        <v>0.03433477367154993</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -11436,19 +11436,19 @@
         <v>3006</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>985</v>
+        <v>1110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6244</v>
+        <v>6514</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01602978694624025</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005253397808856432</v>
+        <v>0.005922621562630299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03330268293729912</v>
+        <v>0.03473941155273249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -11457,19 +11457,19 @@
         <v>11801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6855</v>
+        <v>6844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19713</v>
+        <v>19326</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01790475119763207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01040105196724623</v>
+        <v>0.01038327646425183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02990911689683727</v>
+        <v>0.02932175488308802</v>
       </c>
     </row>
     <row r="18">
@@ -11486,19 +11486,19 @@
         <v>20829</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13062</v>
+        <v>13709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31969</v>
+        <v>32410</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04416570033655497</v>
+        <v>0.04416570033655496</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02769609869583688</v>
+        <v>0.02906735190611194</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06778563561740188</v>
+        <v>0.06872236131064373</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -11507,19 +11507,19 @@
         <v>9589</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5518</v>
+        <v>5582</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15174</v>
+        <v>15727</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05114297627006008</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02942765839538495</v>
+        <v>0.02977289397577995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0809280570915847</v>
+        <v>0.08387676592302595</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>34</v>
@@ -11528,19 +11528,19 @@
         <v>30418</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21168</v>
+        <v>21358</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43198</v>
+        <v>42915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04615053181951944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03211634778001026</v>
+        <v>0.03240441309744408</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0655395586170041</v>
+        <v>0.06511024426927749</v>
       </c>
     </row>
     <row r="19">
@@ -11557,19 +11557,19 @@
         <v>80997</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64464</v>
+        <v>66611</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99626</v>
+        <v>98290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1717447924399569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1366886687266965</v>
+        <v>0.1412405395282348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2112457034541833</v>
+        <v>0.2084135275880225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -11578,19 +11578,19 @@
         <v>30405</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22456</v>
+        <v>22496</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39004</v>
+        <v>39524</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.162162400943738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1197688353073711</v>
+        <v>0.11997999357734</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2080220359448598</v>
+        <v>0.2107958452222924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -11599,19 +11599,19 @@
         <v>111402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93991</v>
+        <v>94171</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131312</v>
+        <v>131430</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1690188815679998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1426028112042095</v>
+        <v>0.1428759426244232</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1992265044342391</v>
+        <v>0.1994053725026156</v>
       </c>
     </row>
     <row r="20">
@@ -11628,19 +11628,19 @@
         <v>329916</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>309369</v>
+        <v>309284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>351695</v>
+        <v>349227</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.699549781962481</v>
+        <v>0.6995497819624811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6559825984144854</v>
+        <v>0.6558014040434946</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7457304435810013</v>
+        <v>0.7404961579839549</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>209</v>
@@ -11649,19 +11649,19 @@
         <v>133730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122884</v>
+        <v>122712</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143222</v>
+        <v>143305</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7132386319009293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6553912151184579</v>
+        <v>0.6544745526154199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7638643937383377</v>
+        <v>0.7643044046580102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>555</v>
@@ -11670,19 +11670,19 @@
         <v>463646</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>442230</v>
+        <v>440469</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>487472</v>
+        <v>485655</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7034438604799921</v>
+        <v>0.703443860479992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6709507037294975</v>
+        <v>0.6682787293757405</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7395916929125683</v>
+        <v>0.7368358319420037</v>
       </c>
     </row>
     <row r="21">
@@ -11774,19 +11774,19 @@
         <v>58725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42157</v>
+        <v>44680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77170</v>
+        <v>78953</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05188450063367557</v>
+        <v>0.05188450063367558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03724672186102345</v>
+        <v>0.03947540318577013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06818063028776165</v>
+        <v>0.06975652662519662</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -11795,19 +11795,19 @@
         <v>35507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26174</v>
+        <v>26993</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49409</v>
+        <v>48031</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0412295340794241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03039236089042673</v>
+        <v>0.0313432913373589</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05737181871450647</v>
+        <v>0.05577157844605719</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -11816,19 +11816,19 @@
         <v>94232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75175</v>
+        <v>75130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115049</v>
+        <v>115950</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04728042170128149</v>
+        <v>0.04728042170128151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03771857134047196</v>
+        <v>0.03769588676802866</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05772494112089607</v>
+        <v>0.05817727984543718</v>
       </c>
     </row>
     <row r="23">
@@ -11845,19 +11845,19 @@
         <v>31206</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21540</v>
+        <v>20930</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44637</v>
+        <v>46339</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02757066790795754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01903055280927912</v>
+        <v>0.01849233841211282</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03943775327794909</v>
+        <v>0.04094121601944427</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -11866,19 +11866,19 @@
         <v>16930</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10996</v>
+        <v>11139</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24698</v>
+        <v>25729</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01965866586158161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0127676143570935</v>
+        <v>0.01293427873085057</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02867773730710617</v>
+        <v>0.02987569996416067</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -11887,19 +11887,19 @@
         <v>48136</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34763</v>
+        <v>35229</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62640</v>
+        <v>63005</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02415184141523212</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01744199705657959</v>
+        <v>0.01767571805702591</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03142915649283266</v>
+        <v>0.0316123376895278</v>
       </c>
     </row>
     <row r="24">
@@ -11916,19 +11916,19 @@
         <v>54989</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41429</v>
+        <v>40015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72746</v>
+        <v>71156</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04858330825464</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03660302604693957</v>
+        <v>0.03535428177759648</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0642721873742805</v>
+        <v>0.06286697050861136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -11937,19 +11937,19 @@
         <v>31084</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22264</v>
+        <v>22019</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41435</v>
+        <v>42483</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03609326776939518</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02585142112178309</v>
+        <v>0.02556757729219548</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04811210155280578</v>
+        <v>0.04932885752129904</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -11958,19 +11958,19 @@
         <v>86073</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68980</v>
+        <v>69973</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>107349</v>
+        <v>106733</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04318628218514761</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03460996646669009</v>
+        <v>0.03510836590042354</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05386160546835736</v>
+        <v>0.05355250521309485</v>
       </c>
     </row>
     <row r="25">
@@ -11987,19 +11987,19 @@
         <v>193249</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>166979</v>
+        <v>163383</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>224865</v>
+        <v>220977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1707380899381255</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1475286375280676</v>
+        <v>0.144351434010155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1986717283786316</v>
+        <v>0.1952368626962076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>157</v>
@@ -12008,19 +12008,19 @@
         <v>120107</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102625</v>
+        <v>101465</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138759</v>
+        <v>139875</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1394624871413685</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1191632305828516</v>
+        <v>0.117816892864666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1611203597447242</v>
+        <v>0.1624169044298723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>329</v>
@@ -12029,19 +12029,19 @@
         <v>313355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>280280</v>
+        <v>276982</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>348544</v>
+        <v>344839</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1572237027083488</v>
+        <v>0.1572237027083489</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1406281527485371</v>
+        <v>0.1389738865241103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1748791398154081</v>
+        <v>0.1730204241287502</v>
       </c>
     </row>
     <row r="26">
@@ -12058,19 +12058,19 @@
         <v>793675</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>758722</v>
+        <v>759111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>823279</v>
+        <v>829277</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7012234332656013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6703416684243246</v>
+        <v>0.6706859673943071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7273790145484973</v>
+        <v>0.7326783253948083</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>963</v>
@@ -12079,19 +12079,19 @@
         <v>657583</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>631362</v>
+        <v>634125</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>678658</v>
+        <v>680879</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7635560451482306</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7331097449720386</v>
+        <v>0.7363174489291182</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7880277791221612</v>
+        <v>0.7906061612030815</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1777</v>
@@ -12100,19 +12100,19 @@
         <v>1451258</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1408062</v>
+        <v>1411814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1493471</v>
+        <v>1492463</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7281577519899899</v>
+        <v>0.72815775198999</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7064846200546862</v>
+        <v>0.7083669822775279</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7493380480166923</v>
+        <v>0.7488322643604793</v>
       </c>
     </row>
     <row r="27">
@@ -12204,19 +12204,19 @@
         <v>29668</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18656</v>
+        <v>18869</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46438</v>
+        <v>48454</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05223612120294167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03284696351944435</v>
+        <v>0.0332223047843255</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0817615680191925</v>
+        <v>0.08531188918880617</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -12225,19 +12225,19 @@
         <v>31072</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23095</v>
+        <v>22927</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>40815</v>
+        <v>40925</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0373972690773821</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02779685169674672</v>
+        <v>0.02759485761935649</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04912397984240774</v>
+        <v>0.04925701640968138</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>70</v>
@@ -12246,19 +12246,19 @@
         <v>60740</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>45718</v>
+        <v>45903</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>80775</v>
+        <v>79472</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04342232323385527</v>
+        <v>0.04342232323385526</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03268347129679382</v>
+        <v>0.0328157337413572</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05774532094988344</v>
+        <v>0.05681370211838146</v>
       </c>
     </row>
     <row r="29">
@@ -12275,19 +12275,19 @@
         <v>20928</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13053</v>
+        <v>13139</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32563</v>
+        <v>32166</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03684709009516665</v>
+        <v>0.03684709009516664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02298140425312937</v>
+        <v>0.02313433965214611</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05733305224332689</v>
+        <v>0.05663329146899067</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -12296,19 +12296,19 @@
         <v>15046</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9355</v>
+        <v>9817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22077</v>
+        <v>22108</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01810957380604223</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01125983111151867</v>
+        <v>0.01181512359205154</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0265717606681024</v>
+        <v>0.02660847544855656</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -12317,19 +12317,19 @@
         <v>35974</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26585</v>
+        <v>26030</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49751</v>
+        <v>48162</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0257176117758603</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01900506487066576</v>
+        <v>0.01860883318352131</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03556639638689293</v>
+        <v>0.03443059725668775</v>
       </c>
     </row>
     <row r="30">
@@ -12346,19 +12346,19 @@
         <v>33053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22518</v>
+        <v>22418</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45582</v>
+        <v>47170</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05819501341378822</v>
+        <v>0.05819501341378821</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03964737418819322</v>
+        <v>0.03947047111743536</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08025426210264903</v>
+        <v>0.08305051420320023</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>48</v>
@@ -12367,19 +12367,19 @@
         <v>32856</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>24662</v>
+        <v>25125</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44687</v>
+        <v>45735</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.03954447041743702</v>
+        <v>0.03954447041743701</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02968318003502174</v>
+        <v>0.03023974467691849</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05378499877180205</v>
+        <v>0.05504581887122906</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>79</v>
@@ -12388,19 +12388,19 @@
         <v>65908</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>51019</v>
+        <v>52058</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82160</v>
+        <v>83628</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0471171944158851</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0364733586493376</v>
+        <v>0.03721589127103422</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05873558822336587</v>
+        <v>0.05978460022368004</v>
       </c>
     </row>
     <row r="31">
@@ -12417,19 +12417,19 @@
         <v>91895</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>75528</v>
+        <v>72682</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>111683</v>
+        <v>113337</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1617978625480243</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1329800811767367</v>
+        <v>0.1279694099385398</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1966370116414531</v>
+        <v>0.1995499980450311</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>208</v>
@@ -12438,19 +12438,19 @@
         <v>139866</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>123476</v>
+        <v>123330</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>159504</v>
+        <v>159213</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1683408244045357</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1486141837119541</v>
+        <v>0.1484379419894295</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.191976972085006</v>
+        <v>0.1916267022868701</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>293</v>
@@ -12459,19 +12459,19 @@
         <v>231761</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>206980</v>
+        <v>205004</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>259296</v>
+        <v>257114</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1656841701569126</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1479680011428982</v>
+        <v>0.1465555629420419</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.185368215228148</v>
+        <v>0.1838086185561745</v>
       </c>
     </row>
     <row r="32">
@@ -12488,19 +12488,19 @@
         <v>392420</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>369743</v>
+        <v>367256</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>413930</v>
+        <v>418770</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6909239127400791</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6509977900518013</v>
+        <v>0.6466192361938983</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7287965298070144</v>
+        <v>0.7373176468042433</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>964</v>
@@ -12509,19 +12509,19 @@
         <v>612011</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>588672</v>
+        <v>589444</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>631773</v>
+        <v>632536</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.736607862294603</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7085174839426668</v>
+        <v>0.7094471018794889</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7603933956291421</v>
+        <v>0.7613117570376614</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1350</v>
@@ -12530,19 +12530,19 @@
         <v>1004431</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>969731</v>
+        <v>971895</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1034312</v>
+        <v>1038035</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7180587004174869</v>
+        <v>0.7180587004174867</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6932524739687679</v>
+        <v>0.6947991493266082</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7394203311502501</v>
+        <v>0.7420824088812399</v>
       </c>
     </row>
     <row r="33">
@@ -12634,19 +12634,19 @@
         <v>15164</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6204</v>
+        <v>6313</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32522</v>
+        <v>30253</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06392291056439477</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02615097797634246</v>
+        <v>0.02661242575491432</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1370930602350342</v>
+        <v>0.1275265062535283</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>43</v>
@@ -12655,19 +12655,19 @@
         <v>35290</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>25241</v>
+        <v>25550</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>48350</v>
+        <v>49434</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04179903685050147</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02989675016930863</v>
+        <v>0.03026239534278961</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05726759272981038</v>
+        <v>0.05855204429700616</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>49</v>
@@ -12676,19 +12676,19 @@
         <v>50454</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>36322</v>
+        <v>35524</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>72443</v>
+        <v>71767</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0466518841405326</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03358473284144136</v>
+        <v>0.03284665260696948</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06698281128901555</v>
+        <v>0.06635785916606919</v>
       </c>
     </row>
     <row r="35">
@@ -12705,19 +12705,19 @@
         <v>4291</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12593</v>
+        <v>12669</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01808872162642786</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003028205418709449</v>
+        <v>0.002942695164984523</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05308428940321612</v>
+        <v>0.05340614829440678</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -12726,19 +12726,19 @@
         <v>16586</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10379</v>
+        <v>10892</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>25470</v>
+        <v>25814</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01964549984202433</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01229283454522763</v>
+        <v>0.01290061813354791</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03016758203536992</v>
+        <v>0.03057531015494552</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -12747,19 +12747,19 @@
         <v>20877</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13527</v>
+        <v>13274</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>31573</v>
+        <v>31038</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0193040222580155</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0125073083778748</v>
+        <v>0.01227349623671829</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02919363470882786</v>
+        <v>0.02869879803980977</v>
       </c>
     </row>
     <row r="36">
@@ -12776,19 +12776,19 @@
         <v>11167</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3463</v>
+        <v>3721</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27752</v>
+        <v>25951</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0470737765033241</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01459784963065217</v>
+        <v>0.0156836186519627</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1169849688162283</v>
+        <v>0.1093939804247763</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -12797,19 +12797,19 @@
         <v>39361</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>29088</v>
+        <v>29504</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>51276</v>
+        <v>52007</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.04662053237687295</v>
+        <v>0.04662053237687296</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03445311783127986</v>
+        <v>0.03494589531111712</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06073360097674892</v>
+        <v>0.061599420898222</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>58</v>
@@ -12818,19 +12818,19 @@
         <v>50528</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>37752</v>
+        <v>37014</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>67699</v>
+        <v>67329</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04671995097594903</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03490698356286507</v>
+        <v>0.03422435782972319</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06259686151283629</v>
+        <v>0.06225449738130293</v>
       </c>
     </row>
     <row r="37">
@@ -12847,19 +12847,19 @@
         <v>50168</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>30867</v>
+        <v>31680</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>74195</v>
+        <v>72101</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2114755160683096</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1301158723493032</v>
+        <v>0.1335434494883632</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3127598015576839</v>
+        <v>0.3039299002999936</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>228</v>
@@ -12868,19 +12868,19 @@
         <v>174107</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>153251</v>
+        <v>150685</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>197249</v>
+        <v>197177</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2062186984240313</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1815163703701009</v>
+        <v>0.1784774539886618</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2336292723013658</v>
+        <v>0.2335437995886908</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>248</v>
@@ -12889,19 +12889,19 @@
         <v>224274</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>194558</v>
+        <v>195474</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>256200</v>
+        <v>257007</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2073717755744945</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.179894865119024</v>
+        <v>0.1807415114253041</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2368916236052874</v>
+        <v>0.2376371657311477</v>
       </c>
     </row>
     <row r="38">
@@ -12918,19 +12918,19 @@
         <v>156437</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>131995</v>
+        <v>132752</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>177452</v>
+        <v>178181</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6594390752375435</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5564064642900295</v>
+        <v>0.5595959640663997</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.748021351178761</v>
+        <v>0.7510945014339631</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>813</v>
@@ -12939,19 +12939,19 @@
         <v>578937</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>554433</v>
+        <v>553137</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>604536</v>
+        <v>604835</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6857162325065698</v>
+        <v>0.68571623250657</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6566919301571963</v>
+        <v>0.6551570123561966</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7160364337710164</v>
+        <v>0.716390709438484</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>891</v>
@@ -12960,19 +12960,19 @@
         <v>735375</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>697570</v>
+        <v>697782</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>768999</v>
+        <v>769816</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6799523670510085</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6449972260003454</v>
+        <v>0.6451933582841372</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7110426794864673</v>
+        <v>0.7117981399676013</v>
       </c>
     </row>
     <row r="39">
@@ -13064,19 +13064,19 @@
         <v>177519</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>148871</v>
+        <v>149342</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>210336</v>
+        <v>210769</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05156737593640943</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04324519657093341</v>
+        <v>0.04338223088718503</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06110016501869776</v>
+        <v>0.06122612144783018</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>234</v>
@@ -13085,19 +13085,19 @@
         <v>171930</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>151618</v>
+        <v>151252</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>197132</v>
+        <v>198746</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04729326619243749</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04170617782274691</v>
+        <v>0.04160547511212544</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05422574395523964</v>
+        <v>0.05466965288119213</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>381</v>
@@ -13106,19 +13106,19 @@
         <v>349449</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>311328</v>
+        <v>312986</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>389705</v>
+        <v>392014</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.04937207265694933</v>
+        <v>0.04937207265694932</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04398616910512407</v>
+        <v>0.04422031306640319</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05505968043170741</v>
+        <v>0.05538586503273033</v>
       </c>
     </row>
     <row r="41">
@@ -13135,19 +13135,19 @@
         <v>92469</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>75447</v>
+        <v>75159</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>116814</v>
+        <v>115125</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02686128014708529</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02191655997684726</v>
+        <v>0.02183286389539481</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03393301340036341</v>
+        <v>0.03344245139522085</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>107</v>
@@ -13156,19 +13156,19 @@
         <v>78761</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>64682</v>
+        <v>64781</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>95624</v>
+        <v>97225</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02166519317407639</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01779231096013776</v>
+        <v>0.01781957675026562</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02630349326937069</v>
+        <v>0.0267439272208766</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>196</v>
@@ -13177,19 +13177,19 @@
         <v>171231</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>148240</v>
+        <v>147021</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>200332</v>
+        <v>195799</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02419242336625641</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02094417739289757</v>
+        <v>0.02077186368364734</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02830398975192143</v>
+        <v>0.02766354604532465</v>
       </c>
     </row>
     <row r="42">
@@ -13206,19 +13206,19 @@
         <v>163135</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>139217</v>
+        <v>136479</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>192672</v>
+        <v>193647</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.04738899148432779</v>
+        <v>0.0473889914843278</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04044094473993184</v>
+        <v>0.03964564571865606</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05596892522215162</v>
+        <v>0.05625212383559343</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>214</v>
@@ -13227,19 +13227,19 @@
         <v>155324</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>133463</v>
+        <v>134944</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>176526</v>
+        <v>176073</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04272538013525946</v>
+        <v>0.04272538013525945</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03671220137909829</v>
+        <v>0.03711950852622222</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.048557687083211</v>
+        <v>0.04843312220233961</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>365</v>
@@ -13248,19 +13248,19 @@
         <v>318459</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>283992</v>
+        <v>285081</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>352080</v>
+        <v>355847</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.0449936291979063</v>
+        <v>0.04499362919790629</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04012391843117084</v>
+        <v>0.0402777468409443</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04974375443871334</v>
+        <v>0.05027598429049127</v>
       </c>
     </row>
     <row r="43">
@@ -13277,19 +13277,19 @@
         <v>585794</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>531335</v>
+        <v>539248</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>632855</v>
+        <v>639366</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1701665248459304</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1543468575564654</v>
+        <v>0.1566453533828191</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.183837137224353</v>
+        <v>0.1857285376303555</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>807</v>
@@ -13298,19 +13298,19 @@
         <v>587023</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>549268</v>
+        <v>549591</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>629587</v>
+        <v>631817</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1614743742842023</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1510890873758365</v>
+        <v>0.1511780113876195</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1731826389967197</v>
+        <v>0.1737960748584734</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1331</v>
@@ -13319,19 +13319,19 @@
         <v>1172817</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1109332</v>
+        <v>1114960</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1238111</v>
+        <v>1241303</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1657019912291614</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1567324818904926</v>
+        <v>0.1575276629230947</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1749270499230491</v>
+        <v>0.175378009509824</v>
       </c>
     </row>
     <row r="44">
@@ -13348,19 +13348,19 @@
         <v>2423558</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2364801</v>
+        <v>2360109</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2486185</v>
+        <v>2483916</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7040158275862471</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6869476601441262</v>
+        <v>0.6855848682090729</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7222084438792723</v>
+        <v>0.7215491983827499</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3882</v>
@@ -13369,19 +13369,19 @@
         <v>2642356</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2592202</v>
+        <v>2590593</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2688466</v>
+        <v>2687926</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7268417862140244</v>
+        <v>0.7268417862140243</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7130457640556309</v>
+        <v>0.7126034083381007</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7395256123583681</v>
+        <v>0.7393770389141044</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6271</v>
@@ -13390,19 +13390,19 @@
         <v>5065913</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4992767</v>
+        <v>4986290</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5141513</v>
+        <v>5140580</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7157398835497265</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7054054460128244</v>
+        <v>0.7044902645177358</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7264210551820323</v>
+        <v>0.7262892852857725</v>
       </c>
     </row>
     <row r="45">
